--- a/Database/Questions.xlsx
+++ b/Database/Questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="457">
   <si>
     <t>What is the capital of France?</t>
   </si>
@@ -968,6 +968,447 @@
   </si>
   <si>
     <t>The Fellowship of the Ring.</t>
+  </si>
+  <si>
+    <t>Which country won the FIFA World Cup in 2018?</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>They defeated Croatia in the final.</t>
+  </si>
+  <si>
+    <t>How many players are there in a soccer team on the field?</t>
+  </si>
+  <si>
+    <t>It's a standard number for international matches.</t>
+  </si>
+  <si>
+    <t>Which sport uses a bat, ball, and wickets?</t>
+  </si>
+  <si>
+    <t>Baseball</t>
+  </si>
+  <si>
+    <t>Hockey</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>Cricket</t>
+  </si>
+  <si>
+    <t>It's very popular in India and England.</t>
+  </si>
+  <si>
+    <t>Who holds the record for the most Olympic gold medals?</t>
+  </si>
+  <si>
+    <t>Usain Bolt</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Michael Phelps</t>
+  </si>
+  <si>
+    <t>Mark Spitz</t>
+  </si>
+  <si>
+    <t>He's a swimmer.</t>
+  </si>
+  <si>
+    <t>Which basketball player is known as 'King James'?</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Kobe Bryant</t>
+  </si>
+  <si>
+    <t>He plays for the Lakers.</t>
+  </si>
+  <si>
+    <t>In which sport can you get a hole-in-one?</t>
+  </si>
+  <si>
+    <t>Tennis</t>
+  </si>
+  <si>
+    <t>Played with a club and a small white ball.</t>
+  </si>
+  <si>
+    <t>How long is a marathon?</t>
+  </si>
+  <si>
+    <t>50 km</t>
+  </si>
+  <si>
+    <t>21.1 km</t>
+  </si>
+  <si>
+    <t>10 km</t>
+  </si>
+  <si>
+    <t>42.195 km</t>
+  </si>
+  <si>
+    <t>Itâ€™s over 40 km.</t>
+  </si>
+  <si>
+    <t>Which country has won the most World Cups in football?</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Theyâ€™ve won it five times.</t>
+  </si>
+  <si>
+    <t>What is the national sport of Japan?</t>
+  </si>
+  <si>
+    <t>Judo</t>
+  </si>
+  <si>
+    <t>Karate</t>
+  </si>
+  <si>
+    <t>Sumo</t>
+  </si>
+  <si>
+    <t>Itâ€™s a traditional wrestling sport.</t>
+  </si>
+  <si>
+    <t>Which Grand Slam tennis tournament is played on grass?</t>
+  </si>
+  <si>
+    <t>Australian Open</t>
+  </si>
+  <si>
+    <t>Wimbledon</t>
+  </si>
+  <si>
+    <t>French Open</t>
+  </si>
+  <si>
+    <t>US Open</t>
+  </si>
+  <si>
+    <t>Held in England.</t>
+  </si>
+  <si>
+    <t>Who played the character of Harry Potter in the movie series?</t>
+  </si>
+  <si>
+    <t>Daniel Radcliffe</t>
+  </si>
+  <si>
+    <t>Tom Felton</t>
+  </si>
+  <si>
+    <t>Elijah Wood</t>
+  </si>
+  <si>
+    <t>Rupert Grint</t>
+  </si>
+  <si>
+    <t>He wore round glasses and had a lightning-shaped scar.</t>
+  </si>
+  <si>
+    <t>Which movie features the song 'Let It Go'?</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Brave</t>
+  </si>
+  <si>
+    <t>Frozen</t>
+  </si>
+  <si>
+    <t>It's about two sisters and magical ice powers.</t>
+  </si>
+  <si>
+    <t>In which movie does a toy cowboy named Woody appear?</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Cars</t>
+  </si>
+  <si>
+    <t>Despicable Me</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>The movie also features a space ranger named Buzz.</t>
+  </si>
+  <si>
+    <t>Which film won Best Picture at the 2020 Oscars?</t>
+  </si>
+  <si>
+    <t>Parasite</t>
+  </si>
+  <si>
+    <t>Ford v Ferrari</t>
+  </si>
+  <si>
+    <t>Joker</t>
+  </si>
+  <si>
+    <t>It was a South Korean film.</t>
+  </si>
+  <si>
+    <t>What is the name of the second Harry Potter movie?</t>
+  </si>
+  <si>
+    <t>Prisoner of Azkaban</t>
+  </si>
+  <si>
+    <t>Sorcerer's Stone</t>
+  </si>
+  <si>
+    <t>Chamber of Secrets</t>
+  </si>
+  <si>
+    <t>Goblet of Fire</t>
+  </si>
+  <si>
+    <t>It involves a hidden room and a basilisk.</t>
+  </si>
+  <si>
+    <t>Which actor has played both Batman and a magician in 'The Prestige'?</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>Michael Keaton</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>Robert Pattinson</t>
+  </si>
+  <si>
+    <t>He also starred in 'American Psycho'.</t>
+  </si>
+  <si>
+    <t>Which 1927 film is recognized as the first 'talkie'?</t>
+  </si>
+  <si>
+    <t>Nosferatu</t>
+  </si>
+  <si>
+    <t>The Jazz Singer</t>
+  </si>
+  <si>
+    <t>Metropolis</t>
+  </si>
+  <si>
+    <t>Wings</t>
+  </si>
+  <si>
+    <t>It marked the decline of the silent film era.</t>
+  </si>
+  <si>
+    <t>Who directed the movie 'Persona' (1966)?</t>
+  </si>
+  <si>
+    <t>Ingmar Bergman</t>
+  </si>
+  <si>
+    <t>Jean-Luc Godard</t>
+  </si>
+  <si>
+    <t>Andrei Tarkovsky</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>A Swedish filmmaker known for psychological drama.</t>
+  </si>
+  <si>
+    <t>What is the name of the artificial intelligence in '2001: A Space Odyssey'?</t>
+  </si>
+  <si>
+    <t>GLaDOS</t>
+  </si>
+  <si>
+    <t>HAL 9000</t>
+  </si>
+  <si>
+    <t>Skynet</t>
+  </si>
+  <si>
+    <t>Deep Thought</t>
+  </si>
+  <si>
+    <t>It said, 'I'm sorry, Dave. I'm afraid I can't do that.'</t>
+  </si>
+  <si>
+    <t>He was also an inventor from the Renaissance period.</t>
+  </si>
+  <si>
+    <t>Which artist is famous for cutting off part of his ear?</t>
+  </si>
+  <si>
+    <t>Henri Matisse</t>
+  </si>
+  <si>
+    <t>Salvador DalÃ­</t>
+  </si>
+  <si>
+    <t>He painted 'Starry Night'.</t>
+  </si>
+  <si>
+    <t>Which pop star is known as the 'Queen of Pop'?</t>
+  </si>
+  <si>
+    <t>Madonna</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>BeyoncÃ©</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>She released hits like 'Like a Virgin' and 'Vogue'.</t>
+  </si>
+  <si>
+    <t>Which painting is known for its mysterious smile?</t>
+  </si>
+  <si>
+    <t>American Gothic</t>
+  </si>
+  <si>
+    <t>Girl with a Pearl Earring</t>
+  </si>
+  <si>
+    <t>The Scream</t>
+  </si>
+  <si>
+    <t>Mona Lisa</t>
+  </si>
+  <si>
+    <t>It's displayed in the Louvre.</t>
+  </si>
+  <si>
+    <t>What movement is Salvador DalÃ­ associated with?</t>
+  </si>
+  <si>
+    <t>Impressionism</t>
+  </si>
+  <si>
+    <t>Surrealism</t>
+  </si>
+  <si>
+    <t>Cubism</t>
+  </si>
+  <si>
+    <t>Expressionism</t>
+  </si>
+  <si>
+    <t>Think melting clocks.</t>
+  </si>
+  <si>
+    <t>Which fashion designer is known for the 'little black dress'?</t>
+  </si>
+  <si>
+    <t>Ralph Lauren</t>
+  </si>
+  <si>
+    <t>Giorgio Armani</t>
+  </si>
+  <si>
+    <t>Donatella Versace</t>
+  </si>
+  <si>
+    <t>Coco Chanel</t>
+  </si>
+  <si>
+    <t>She founded a brand with two interlocking Cs.</t>
+  </si>
+  <si>
+    <t>Which artist created the work 'Campbell's Soup Cans'?</t>
+  </si>
+  <si>
+    <t>Jasper Johns</t>
+  </si>
+  <si>
+    <t>Andy Warhol</t>
+  </si>
+  <si>
+    <t>Roy Lichtenstein</t>
+  </si>
+  <si>
+    <t>Jean-Michel Basquiat</t>
+  </si>
+  <si>
+    <t>A leading figure in the pop art movement.</t>
+  </si>
+  <si>
+    <t>Who composed the ballet 'The Rite of Spring'?</t>
+  </si>
+  <si>
+    <t>Mozart</t>
+  </si>
+  <si>
+    <t>Igor Stravinsky</t>
+  </si>
+  <si>
+    <t>Tchaikovsky</t>
+  </si>
+  <si>
+    <t>Beethoven</t>
+  </si>
+  <si>
+    <t>His work caused a riot at its 1913 premiere.</t>
+  </si>
+  <si>
+    <t>Which contemporary artist is known for balloon animal sculptures?</t>
+  </si>
+  <si>
+    <t>Damien Hirst</t>
+  </si>
+  <si>
+    <t>Banksy</t>
+  </si>
+  <si>
+    <t>Jeff Koons</t>
+  </si>
+  <si>
+    <t>Tracey Emin</t>
+  </si>
+  <si>
+    <t>His shiny sculptures look like they're inflatable.</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +2241,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1810,7 +2251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -3171,36 +3612,7175 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6" t="s">
+        <v>336</v>
+      </c>
+      <c r="G6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" t="s">
+        <v>344</v>
+      </c>
+      <c r="F8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" t="s">
+        <v>349</v>
+      </c>
+      <c r="F9" t="s">
+        <v>350</v>
+      </c>
+      <c r="G9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" t="s">
+        <v>313</v>
+      </c>
+      <c r="G11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13" t="s">
+        <v>320</v>
+      </c>
+      <c r="F13" t="s">
+        <v>321</v>
+      </c>
+      <c r="G13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" t="s">
+        <v>324</v>
+      </c>
+      <c r="E14" t="s">
+        <v>325</v>
+      </c>
+      <c r="F14" t="s">
+        <v>327</v>
+      </c>
+      <c r="G14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C15" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" t="s">
+        <v>332</v>
+      </c>
+      <c r="F15" t="s">
+        <v>333</v>
+      </c>
+      <c r="G15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" t="s">
+        <v>317</v>
+      </c>
+      <c r="F16" t="s">
+        <v>336</v>
+      </c>
+      <c r="G16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>337</v>
+      </c>
+      <c r="B17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C17" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" t="s">
+        <v>338</v>
+      </c>
+      <c r="E17" t="s">
+        <v>341</v>
+      </c>
+      <c r="F17" t="s">
+        <v>342</v>
+      </c>
+      <c r="G17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>343</v>
+      </c>
+      <c r="B18" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" t="s">
+        <v>345</v>
+      </c>
+      <c r="G18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>346</v>
+      </c>
+      <c r="B19" t="s">
+        <v>347</v>
+      </c>
+      <c r="C19" t="s">
+        <v>349</v>
+      </c>
+      <c r="D19" t="s">
+        <v>348</v>
+      </c>
+      <c r="E19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F19" t="s">
+        <v>350</v>
+      </c>
+      <c r="G19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>351</v>
+      </c>
+      <c r="B20" t="s">
+        <v>355</v>
+      </c>
+      <c r="C20" t="s">
+        <v>353</v>
+      </c>
+      <c r="D20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E20" t="s">
+        <v>352</v>
+      </c>
+      <c r="F20" t="s">
+        <v>356</v>
+      </c>
+      <c r="G20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" t="s">
+        <v>312</v>
+      </c>
+      <c r="C21" t="s">
+        <v>311</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" t="s">
+        <v>313</v>
+      </c>
+      <c r="G21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>315</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" t="s">
+        <v>320</v>
+      </c>
+      <c r="C23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" t="s">
+        <v>319</v>
+      </c>
+      <c r="E23" t="s">
+        <v>317</v>
+      </c>
+      <c r="F23" t="s">
+        <v>321</v>
+      </c>
+      <c r="G23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" t="s">
+        <v>323</v>
+      </c>
+      <c r="D24" t="s">
+        <v>325</v>
+      </c>
+      <c r="E24" t="s">
+        <v>326</v>
+      </c>
+      <c r="F24" t="s">
+        <v>327</v>
+      </c>
+      <c r="G24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25" t="s">
+        <v>330</v>
+      </c>
+      <c r="C25" t="s">
+        <v>332</v>
+      </c>
+      <c r="D25" t="s">
+        <v>329</v>
+      </c>
+      <c r="E25" t="s">
+        <v>331</v>
+      </c>
+      <c r="F25" t="s">
+        <v>333</v>
+      </c>
+      <c r="G25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>334</v>
+      </c>
+      <c r="B26" t="s">
+        <v>320</v>
+      </c>
+      <c r="C26" t="s">
+        <v>319</v>
+      </c>
+      <c r="D26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E26" t="s">
+        <v>335</v>
+      </c>
+      <c r="F26" t="s">
+        <v>336</v>
+      </c>
+      <c r="G26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>337</v>
+      </c>
+      <c r="B27" t="s">
+        <v>341</v>
+      </c>
+      <c r="C27" t="s">
+        <v>338</v>
+      </c>
+      <c r="D27" t="s">
+        <v>339</v>
+      </c>
+      <c r="E27" t="s">
+        <v>340</v>
+      </c>
+      <c r="F27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>343</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" t="s">
+        <v>311</v>
+      </c>
+      <c r="E28" t="s">
+        <v>344</v>
+      </c>
+      <c r="F28" t="s">
+        <v>345</v>
+      </c>
+      <c r="G28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>346</v>
+      </c>
+      <c r="B29" t="s">
+        <v>347</v>
+      </c>
+      <c r="C29" t="s">
+        <v>349</v>
+      </c>
+      <c r="D29" t="s">
+        <v>348</v>
+      </c>
+      <c r="E29" t="s">
+        <v>317</v>
+      </c>
+      <c r="F29" t="s">
+        <v>350</v>
+      </c>
+      <c r="G29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>351</v>
+      </c>
+      <c r="B30" t="s">
+        <v>352</v>
+      </c>
+      <c r="C30" t="s">
+        <v>353</v>
+      </c>
+      <c r="D30" t="s">
+        <v>355</v>
+      </c>
+      <c r="E30" t="s">
+        <v>354</v>
+      </c>
+      <c r="F30" t="s">
+        <v>356</v>
+      </c>
+      <c r="G30" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>310</v>
+      </c>
+      <c r="B31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" t="s">
+        <v>312</v>
+      </c>
+      <c r="F31" t="s">
+        <v>313</v>
+      </c>
+      <c r="G31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>314</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>315</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>316</v>
+      </c>
+      <c r="B33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C33" t="s">
+        <v>320</v>
+      </c>
+      <c r="D33" t="s">
+        <v>317</v>
+      </c>
+      <c r="E33" t="s">
+        <v>319</v>
+      </c>
+      <c r="F33" t="s">
+        <v>321</v>
+      </c>
+      <c r="G33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>322</v>
+      </c>
+      <c r="B34" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D34" t="s">
+        <v>323</v>
+      </c>
+      <c r="E34" t="s">
+        <v>326</v>
+      </c>
+      <c r="F34" t="s">
+        <v>327</v>
+      </c>
+      <c r="G34" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>328</v>
+      </c>
+      <c r="B35" t="s">
+        <v>330</v>
+      </c>
+      <c r="C35" t="s">
+        <v>332</v>
+      </c>
+      <c r="D35" t="s">
+        <v>329</v>
+      </c>
+      <c r="E35" t="s">
+        <v>331</v>
+      </c>
+      <c r="F35" t="s">
+        <v>333</v>
+      </c>
+      <c r="G35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C36" t="s">
+        <v>319</v>
+      </c>
+      <c r="D36" t="s">
+        <v>317</v>
+      </c>
+      <c r="E36" t="s">
+        <v>335</v>
+      </c>
+      <c r="F36" t="s">
+        <v>336</v>
+      </c>
+      <c r="G36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>337</v>
+      </c>
+      <c r="B37" t="s">
+        <v>341</v>
+      </c>
+      <c r="C37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D37" t="s">
+        <v>338</v>
+      </c>
+      <c r="E37" t="s">
+        <v>340</v>
+      </c>
+      <c r="F37" t="s">
+        <v>342</v>
+      </c>
+      <c r="G37" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>343</v>
+      </c>
+      <c r="B38" t="s">
+        <v>311</v>
+      </c>
+      <c r="C38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" t="s">
+        <v>344</v>
+      </c>
+      <c r="E38" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" t="s">
+        <v>345</v>
+      </c>
+      <c r="G38" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39" t="s">
+        <v>347</v>
+      </c>
+      <c r="C39" t="s">
+        <v>349</v>
+      </c>
+      <c r="D39" t="s">
+        <v>348</v>
+      </c>
+      <c r="E39" t="s">
+        <v>317</v>
+      </c>
+      <c r="F39" t="s">
+        <v>350</v>
+      </c>
+      <c r="G39" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>351</v>
+      </c>
+      <c r="B40" t="s">
+        <v>353</v>
+      </c>
+      <c r="C40" t="s">
+        <v>355</v>
+      </c>
+      <c r="D40" t="s">
+        <v>354</v>
+      </c>
+      <c r="E40" t="s">
+        <v>352</v>
+      </c>
+      <c r="F40" t="s">
+        <v>356</v>
+      </c>
+      <c r="G40" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>310</v>
+      </c>
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" t="s">
+        <v>312</v>
+      </c>
+      <c r="F41" t="s">
+        <v>313</v>
+      </c>
+      <c r="G41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>314</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>315</v>
+      </c>
+      <c r="G42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>316</v>
+      </c>
+      <c r="B43" t="s">
+        <v>318</v>
+      </c>
+      <c r="C43" t="s">
+        <v>319</v>
+      </c>
+      <c r="D43" t="s">
+        <v>320</v>
+      </c>
+      <c r="E43" t="s">
+        <v>317</v>
+      </c>
+      <c r="F43" t="s">
+        <v>321</v>
+      </c>
+      <c r="G43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>322</v>
+      </c>
+      <c r="B44" t="s">
+        <v>325</v>
+      </c>
+      <c r="C44" t="s">
+        <v>323</v>
+      </c>
+      <c r="D44" t="s">
+        <v>326</v>
+      </c>
+      <c r="E44" t="s">
+        <v>324</v>
+      </c>
+      <c r="F44" t="s">
+        <v>327</v>
+      </c>
+      <c r="G44" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>328</v>
+      </c>
+      <c r="B45" t="s">
+        <v>332</v>
+      </c>
+      <c r="C45" t="s">
+        <v>331</v>
+      </c>
+      <c r="D45" t="s">
+        <v>330</v>
+      </c>
+      <c r="E45" t="s">
+        <v>329</v>
+      </c>
+      <c r="F45" t="s">
+        <v>333</v>
+      </c>
+      <c r="G45" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>334</v>
+      </c>
+      <c r="B46" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" t="s">
+        <v>317</v>
+      </c>
+      <c r="D46" t="s">
+        <v>319</v>
+      </c>
+      <c r="E46" t="s">
+        <v>335</v>
+      </c>
+      <c r="F46" t="s">
+        <v>336</v>
+      </c>
+      <c r="G46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>337</v>
+      </c>
+      <c r="B47" t="s">
+        <v>338</v>
+      </c>
+      <c r="C47" t="s">
+        <v>339</v>
+      </c>
+      <c r="D47" t="s">
+        <v>340</v>
+      </c>
+      <c r="E47" t="s">
+        <v>341</v>
+      </c>
+      <c r="F47" t="s">
+        <v>342</v>
+      </c>
+      <c r="G47" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>343</v>
+      </c>
+      <c r="B48" t="s">
+        <v>311</v>
+      </c>
+      <c r="C48" t="s">
+        <v>344</v>
+      </c>
+      <c r="D48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" t="s">
+        <v>345</v>
+      </c>
+      <c r="G48" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>346</v>
+      </c>
+      <c r="B49" t="s">
+        <v>347</v>
+      </c>
+      <c r="C49" t="s">
+        <v>349</v>
+      </c>
+      <c r="D49" t="s">
+        <v>348</v>
+      </c>
+      <c r="E49" t="s">
+        <v>317</v>
+      </c>
+      <c r="F49" t="s">
+        <v>350</v>
+      </c>
+      <c r="G49" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>351</v>
+      </c>
+      <c r="B50" t="s">
+        <v>352</v>
+      </c>
+      <c r="C50" t="s">
+        <v>355</v>
+      </c>
+      <c r="D50" t="s">
+        <v>353</v>
+      </c>
+      <c r="E50" t="s">
+        <v>354</v>
+      </c>
+      <c r="F50" t="s">
+        <v>356</v>
+      </c>
+      <c r="G50" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>310</v>
+      </c>
+      <c r="B51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" t="s">
+        <v>312</v>
+      </c>
+      <c r="E51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" t="s">
+        <v>313</v>
+      </c>
+      <c r="G51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>314</v>
+      </c>
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>315</v>
+      </c>
+      <c r="G52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>316</v>
+      </c>
+      <c r="B53" t="s">
+        <v>319</v>
+      </c>
+      <c r="C53" t="s">
+        <v>318</v>
+      </c>
+      <c r="D53" t="s">
+        <v>317</v>
+      </c>
+      <c r="E53" t="s">
+        <v>320</v>
+      </c>
+      <c r="F53" t="s">
+        <v>321</v>
+      </c>
+      <c r="G53" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>322</v>
+      </c>
+      <c r="B54" t="s">
+        <v>325</v>
+      </c>
+      <c r="C54" t="s">
+        <v>324</v>
+      </c>
+      <c r="D54" t="s">
+        <v>326</v>
+      </c>
+      <c r="E54" t="s">
+        <v>323</v>
+      </c>
+      <c r="F54" t="s">
+        <v>327</v>
+      </c>
+      <c r="G54" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>328</v>
+      </c>
+      <c r="B55" t="s">
+        <v>331</v>
+      </c>
+      <c r="C55" t="s">
+        <v>332</v>
+      </c>
+      <c r="D55" t="s">
+        <v>330</v>
+      </c>
+      <c r="E55" t="s">
+        <v>329</v>
+      </c>
+      <c r="F55" t="s">
+        <v>333</v>
+      </c>
+      <c r="G55" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>334</v>
+      </c>
+      <c r="B56" t="s">
+        <v>319</v>
+      </c>
+      <c r="C56" t="s">
+        <v>320</v>
+      </c>
+      <c r="D56" t="s">
+        <v>335</v>
+      </c>
+      <c r="E56" t="s">
+        <v>317</v>
+      </c>
+      <c r="F56" t="s">
+        <v>336</v>
+      </c>
+      <c r="G56" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>337</v>
+      </c>
+      <c r="B57" t="s">
+        <v>339</v>
+      </c>
+      <c r="C57" t="s">
+        <v>338</v>
+      </c>
+      <c r="D57" t="s">
+        <v>340</v>
+      </c>
+      <c r="E57" t="s">
+        <v>341</v>
+      </c>
+      <c r="F57" t="s">
+        <v>342</v>
+      </c>
+      <c r="G57" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>343</v>
+      </c>
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>344</v>
+      </c>
+      <c r="D58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" t="s">
+        <v>311</v>
+      </c>
+      <c r="F58" t="s">
+        <v>345</v>
+      </c>
+      <c r="G58" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>346</v>
+      </c>
+      <c r="B59" t="s">
+        <v>349</v>
+      </c>
+      <c r="C59" t="s">
+        <v>317</v>
+      </c>
+      <c r="D59" t="s">
+        <v>347</v>
+      </c>
+      <c r="E59" t="s">
+        <v>348</v>
+      </c>
+      <c r="F59" t="s">
+        <v>350</v>
+      </c>
+      <c r="G59" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>351</v>
+      </c>
+      <c r="B60" t="s">
+        <v>354</v>
+      </c>
+      <c r="C60" t="s">
+        <v>353</v>
+      </c>
+      <c r="D60" t="s">
+        <v>352</v>
+      </c>
+      <c r="E60" t="s">
+        <v>355</v>
+      </c>
+      <c r="F60" t="s">
+        <v>356</v>
+      </c>
+      <c r="G60" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>310</v>
+      </c>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" t="s">
+        <v>311</v>
+      </c>
+      <c r="D61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" t="s">
+        <v>312</v>
+      </c>
+      <c r="F61" t="s">
+        <v>313</v>
+      </c>
+      <c r="G61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>11</v>
+      </c>
+      <c r="E62">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>315</v>
+      </c>
+      <c r="G62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>316</v>
+      </c>
+      <c r="B63" t="s">
+        <v>319</v>
+      </c>
+      <c r="C63" t="s">
+        <v>317</v>
+      </c>
+      <c r="D63" t="s">
+        <v>320</v>
+      </c>
+      <c r="E63" t="s">
+        <v>318</v>
+      </c>
+      <c r="F63" t="s">
+        <v>321</v>
+      </c>
+      <c r="G63" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>322</v>
+      </c>
+      <c r="B64" t="s">
+        <v>325</v>
+      </c>
+      <c r="C64" t="s">
+        <v>323</v>
+      </c>
+      <c r="D64" t="s">
+        <v>324</v>
+      </c>
+      <c r="E64" t="s">
+        <v>326</v>
+      </c>
+      <c r="F64" t="s">
+        <v>327</v>
+      </c>
+      <c r="G64" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>328</v>
+      </c>
+      <c r="B65" t="s">
+        <v>330</v>
+      </c>
+      <c r="C65" t="s">
+        <v>331</v>
+      </c>
+      <c r="D65" t="s">
+        <v>329</v>
+      </c>
+      <c r="E65" t="s">
+        <v>332</v>
+      </c>
+      <c r="F65" t="s">
+        <v>333</v>
+      </c>
+      <c r="G65" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B66" t="s">
+        <v>317</v>
+      </c>
+      <c r="C66" t="s">
+        <v>319</v>
+      </c>
+      <c r="D66" t="s">
+        <v>320</v>
+      </c>
+      <c r="E66" t="s">
+        <v>335</v>
+      </c>
+      <c r="F66" t="s">
+        <v>336</v>
+      </c>
+      <c r="G66" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>337</v>
+      </c>
+      <c r="B67" t="s">
+        <v>338</v>
+      </c>
+      <c r="C67" t="s">
+        <v>341</v>
+      </c>
+      <c r="D67" t="s">
+        <v>340</v>
+      </c>
+      <c r="E67" t="s">
+        <v>339</v>
+      </c>
+      <c r="F67" t="s">
+        <v>342</v>
+      </c>
+      <c r="G67" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>343</v>
+      </c>
+      <c r="B68" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" t="s">
+        <v>344</v>
+      </c>
+      <c r="E68" t="s">
+        <v>311</v>
+      </c>
+      <c r="F68" t="s">
+        <v>345</v>
+      </c>
+      <c r="G68" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>346</v>
+      </c>
+      <c r="B69" t="s">
+        <v>349</v>
+      </c>
+      <c r="C69" t="s">
+        <v>317</v>
+      </c>
+      <c r="D69" t="s">
+        <v>347</v>
+      </c>
+      <c r="E69" t="s">
+        <v>348</v>
+      </c>
+      <c r="F69" t="s">
+        <v>350</v>
+      </c>
+      <c r="G69" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>351</v>
+      </c>
+      <c r="B70" t="s">
+        <v>353</v>
+      </c>
+      <c r="C70" t="s">
+        <v>352</v>
+      </c>
+      <c r="D70" t="s">
+        <v>355</v>
+      </c>
+      <c r="E70" t="s">
+        <v>354</v>
+      </c>
+      <c r="F70" t="s">
+        <v>356</v>
+      </c>
+      <c r="G70" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>310</v>
+      </c>
+      <c r="B71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" t="s">
+        <v>312</v>
+      </c>
+      <c r="D71" t="s">
+        <v>311</v>
+      </c>
+      <c r="E71" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" t="s">
+        <v>313</v>
+      </c>
+      <c r="G71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>314</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>315</v>
+      </c>
+      <c r="G72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>316</v>
+      </c>
+      <c r="B73" t="s">
+        <v>319</v>
+      </c>
+      <c r="C73" t="s">
+        <v>320</v>
+      </c>
+      <c r="D73" t="s">
+        <v>318</v>
+      </c>
+      <c r="E73" t="s">
+        <v>317</v>
+      </c>
+      <c r="F73" t="s">
+        <v>321</v>
+      </c>
+      <c r="G73" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>322</v>
+      </c>
+      <c r="B74" t="s">
+        <v>324</v>
+      </c>
+      <c r="C74" t="s">
+        <v>326</v>
+      </c>
+      <c r="D74" t="s">
+        <v>323</v>
+      </c>
+      <c r="E74" t="s">
+        <v>325</v>
+      </c>
+      <c r="F74" t="s">
+        <v>327</v>
+      </c>
+      <c r="G74" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>328</v>
+      </c>
+      <c r="B75" t="s">
+        <v>331</v>
+      </c>
+      <c r="C75" t="s">
+        <v>332</v>
+      </c>
+      <c r="D75" t="s">
+        <v>329</v>
+      </c>
+      <c r="E75" t="s">
+        <v>330</v>
+      </c>
+      <c r="F75" t="s">
+        <v>333</v>
+      </c>
+      <c r="G75" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>334</v>
+      </c>
+      <c r="B76" t="s">
+        <v>320</v>
+      </c>
+      <c r="C76" t="s">
+        <v>319</v>
+      </c>
+      <c r="D76" t="s">
+        <v>317</v>
+      </c>
+      <c r="E76" t="s">
+        <v>335</v>
+      </c>
+      <c r="F76" t="s">
+        <v>336</v>
+      </c>
+      <c r="G76" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>337</v>
+      </c>
+      <c r="B77" t="s">
+        <v>341</v>
+      </c>
+      <c r="C77" t="s">
+        <v>339</v>
+      </c>
+      <c r="D77" t="s">
+        <v>338</v>
+      </c>
+      <c r="E77" t="s">
+        <v>340</v>
+      </c>
+      <c r="F77" t="s">
+        <v>342</v>
+      </c>
+      <c r="G77" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>343</v>
+      </c>
+      <c r="B78" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" t="s">
+        <v>128</v>
+      </c>
+      <c r="D78" t="s">
+        <v>311</v>
+      </c>
+      <c r="E78" t="s">
+        <v>344</v>
+      </c>
+      <c r="F78" t="s">
+        <v>345</v>
+      </c>
+      <c r="G78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>346</v>
+      </c>
+      <c r="B79" t="s">
+        <v>348</v>
+      </c>
+      <c r="C79" t="s">
+        <v>349</v>
+      </c>
+      <c r="D79" t="s">
+        <v>317</v>
+      </c>
+      <c r="E79" t="s">
+        <v>347</v>
+      </c>
+      <c r="F79" t="s">
+        <v>350</v>
+      </c>
+      <c r="G79" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>351</v>
+      </c>
+      <c r="B80" t="s">
+        <v>353</v>
+      </c>
+      <c r="C80" t="s">
+        <v>355</v>
+      </c>
+      <c r="D80" t="s">
+        <v>352</v>
+      </c>
+      <c r="E80" t="s">
+        <v>354</v>
+      </c>
+      <c r="F80" t="s">
+        <v>356</v>
+      </c>
+      <c r="G80" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>310</v>
+      </c>
+      <c r="B81" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" t="s">
+        <v>311</v>
+      </c>
+      <c r="D81" t="s">
+        <v>312</v>
+      </c>
+      <c r="E81" t="s">
+        <v>128</v>
+      </c>
+      <c r="F81" t="s">
+        <v>313</v>
+      </c>
+      <c r="G81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>314</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>11</v>
+      </c>
+      <c r="E82">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>315</v>
+      </c>
+      <c r="G82">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>316</v>
+      </c>
+      <c r="B83" t="s">
+        <v>320</v>
+      </c>
+      <c r="C83" t="s">
+        <v>318</v>
+      </c>
+      <c r="D83" t="s">
+        <v>317</v>
+      </c>
+      <c r="E83" t="s">
+        <v>319</v>
+      </c>
+      <c r="F83" t="s">
+        <v>321</v>
+      </c>
+      <c r="G83" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>322</v>
+      </c>
+      <c r="B84" t="s">
+        <v>323</v>
+      </c>
+      <c r="C84" t="s">
+        <v>326</v>
+      </c>
+      <c r="D84" t="s">
+        <v>325</v>
+      </c>
+      <c r="E84" t="s">
+        <v>324</v>
+      </c>
+      <c r="F84" t="s">
+        <v>327</v>
+      </c>
+      <c r="G84" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>328</v>
+      </c>
+      <c r="B85" t="s">
+        <v>331</v>
+      </c>
+      <c r="C85" t="s">
+        <v>329</v>
+      </c>
+      <c r="D85" t="s">
+        <v>330</v>
+      </c>
+      <c r="E85" t="s">
+        <v>332</v>
+      </c>
+      <c r="F85" t="s">
+        <v>333</v>
+      </c>
+      <c r="G85" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>334</v>
+      </c>
+      <c r="B86" t="s">
+        <v>317</v>
+      </c>
+      <c r="C86" t="s">
+        <v>319</v>
+      </c>
+      <c r="D86" t="s">
+        <v>320</v>
+      </c>
+      <c r="E86" t="s">
+        <v>335</v>
+      </c>
+      <c r="F86" t="s">
+        <v>336</v>
+      </c>
+      <c r="G86" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>337</v>
+      </c>
+      <c r="B87" t="s">
+        <v>340</v>
+      </c>
+      <c r="C87" t="s">
+        <v>338</v>
+      </c>
+      <c r="D87" t="s">
+        <v>339</v>
+      </c>
+      <c r="E87" t="s">
+        <v>341</v>
+      </c>
+      <c r="F87" t="s">
+        <v>342</v>
+      </c>
+      <c r="G87" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>343</v>
+      </c>
+      <c r="B88" t="s">
+        <v>311</v>
+      </c>
+      <c r="C88" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" t="s">
+        <v>128</v>
+      </c>
+      <c r="E88" t="s">
+        <v>344</v>
+      </c>
+      <c r="F88" t="s">
+        <v>345</v>
+      </c>
+      <c r="G88" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>346</v>
+      </c>
+      <c r="B89" t="s">
+        <v>347</v>
+      </c>
+      <c r="C89" t="s">
+        <v>317</v>
+      </c>
+      <c r="D89" t="s">
+        <v>349</v>
+      </c>
+      <c r="E89" t="s">
+        <v>348</v>
+      </c>
+      <c r="F89" t="s">
+        <v>350</v>
+      </c>
+      <c r="G89" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>351</v>
+      </c>
+      <c r="B90" t="s">
+        <v>353</v>
+      </c>
+      <c r="C90" t="s">
+        <v>355</v>
+      </c>
+      <c r="D90" t="s">
+        <v>354</v>
+      </c>
+      <c r="E90" t="s">
+        <v>352</v>
+      </c>
+      <c r="F90" t="s">
+        <v>356</v>
+      </c>
+      <c r="G90" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>310</v>
+      </c>
+      <c r="B91" t="s">
+        <v>311</v>
+      </c>
+      <c r="C91" t="s">
+        <v>128</v>
+      </c>
+      <c r="D91" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91" t="s">
+        <v>312</v>
+      </c>
+      <c r="F91" t="s">
+        <v>313</v>
+      </c>
+      <c r="G91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>314</v>
+      </c>
+      <c r="B92">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>9</v>
+      </c>
+      <c r="E92">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>315</v>
+      </c>
+      <c r="G92">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>316</v>
+      </c>
+      <c r="B93" t="s">
+        <v>320</v>
+      </c>
+      <c r="C93" t="s">
+        <v>318</v>
+      </c>
+      <c r="D93" t="s">
+        <v>319</v>
+      </c>
+      <c r="E93" t="s">
+        <v>317</v>
+      </c>
+      <c r="F93" t="s">
+        <v>321</v>
+      </c>
+      <c r="G93" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>322</v>
+      </c>
+      <c r="B94" t="s">
+        <v>323</v>
+      </c>
+      <c r="C94" t="s">
+        <v>325</v>
+      </c>
+      <c r="D94" t="s">
+        <v>324</v>
+      </c>
+      <c r="E94" t="s">
+        <v>326</v>
+      </c>
+      <c r="F94" t="s">
+        <v>327</v>
+      </c>
+      <c r="G94" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>328</v>
+      </c>
+      <c r="B95" t="s">
+        <v>332</v>
+      </c>
+      <c r="C95" t="s">
+        <v>329</v>
+      </c>
+      <c r="D95" t="s">
+        <v>331</v>
+      </c>
+      <c r="E95" t="s">
+        <v>330</v>
+      </c>
+      <c r="F95" t="s">
+        <v>333</v>
+      </c>
+      <c r="G95" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>334</v>
+      </c>
+      <c r="B96" t="s">
+        <v>335</v>
+      </c>
+      <c r="C96" t="s">
+        <v>320</v>
+      </c>
+      <c r="D96" t="s">
+        <v>317</v>
+      </c>
+      <c r="E96" t="s">
+        <v>319</v>
+      </c>
+      <c r="F96" t="s">
+        <v>336</v>
+      </c>
+      <c r="G96" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>337</v>
+      </c>
+      <c r="B97" t="s">
+        <v>338</v>
+      </c>
+      <c r="C97" t="s">
+        <v>341</v>
+      </c>
+      <c r="D97" t="s">
+        <v>340</v>
+      </c>
+      <c r="E97" t="s">
+        <v>339</v>
+      </c>
+      <c r="F97" t="s">
+        <v>342</v>
+      </c>
+      <c r="G97" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>343</v>
+      </c>
+      <c r="B98" t="s">
+        <v>128</v>
+      </c>
+      <c r="C98" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" t="s">
+        <v>311</v>
+      </c>
+      <c r="E98" t="s">
+        <v>344</v>
+      </c>
+      <c r="F98" t="s">
+        <v>345</v>
+      </c>
+      <c r="G98" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>346</v>
+      </c>
+      <c r="B99" t="s">
+        <v>349</v>
+      </c>
+      <c r="C99" t="s">
+        <v>347</v>
+      </c>
+      <c r="D99" t="s">
+        <v>317</v>
+      </c>
+      <c r="E99" t="s">
+        <v>348</v>
+      </c>
+      <c r="F99" t="s">
+        <v>350</v>
+      </c>
+      <c r="G99" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>351</v>
+      </c>
+      <c r="B100" t="s">
+        <v>354</v>
+      </c>
+      <c r="C100" t="s">
+        <v>353</v>
+      </c>
+      <c r="D100" t="s">
+        <v>355</v>
+      </c>
+      <c r="E100" t="s">
+        <v>352</v>
+      </c>
+      <c r="F100" t="s">
+        <v>356</v>
+      </c>
+      <c r="G100" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F3" t="s">
+        <v>374</v>
+      </c>
+      <c r="G3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F6" t="s">
+        <v>374</v>
+      </c>
+      <c r="G6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E8" t="s">
+        <v>364</v>
+      </c>
+      <c r="F8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E9" t="s">
+        <v>370</v>
+      </c>
+      <c r="F9" t="s">
+        <v>374</v>
+      </c>
+      <c r="G9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" t="s">
+        <v>359</v>
+      </c>
+      <c r="E10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F10" t="s">
+        <v>362</v>
+      </c>
+      <c r="G10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D12" t="s">
+        <v>373</v>
+      </c>
+      <c r="E12" t="s">
+        <v>371</v>
+      </c>
+      <c r="F12" t="s">
+        <v>374</v>
+      </c>
+      <c r="G12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" t="s">
+        <v>361</v>
+      </c>
+      <c r="E13" t="s">
+        <v>360</v>
+      </c>
+      <c r="F13" t="s">
+        <v>362</v>
+      </c>
+      <c r="G13" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C14" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" t="s">
+        <v>365</v>
+      </c>
+      <c r="E14" t="s">
+        <v>366</v>
+      </c>
+      <c r="F14" t="s">
+        <v>368</v>
+      </c>
+      <c r="G14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C15" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" t="s">
+        <v>373</v>
+      </c>
+      <c r="F15" t="s">
+        <v>374</v>
+      </c>
+      <c r="G15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" t="s">
+        <v>362</v>
+      </c>
+      <c r="G16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>363</v>
+      </c>
+      <c r="B17" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" t="s">
+        <v>364</v>
+      </c>
+      <c r="D17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E17" t="s">
+        <v>367</v>
+      </c>
+      <c r="F17" t="s">
+        <v>368</v>
+      </c>
+      <c r="G17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" t="s">
+        <v>372</v>
+      </c>
+      <c r="C18" t="s">
+        <v>371</v>
+      </c>
+      <c r="D18" t="s">
+        <v>373</v>
+      </c>
+      <c r="E18" t="s">
+        <v>370</v>
+      </c>
+      <c r="F18" t="s">
+        <v>374</v>
+      </c>
+      <c r="G18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19" t="s">
+        <v>359</v>
+      </c>
+      <c r="D19" t="s">
+        <v>361</v>
+      </c>
+      <c r="E19" t="s">
+        <v>360</v>
+      </c>
+      <c r="F19" t="s">
+        <v>362</v>
+      </c>
+      <c r="G19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>363</v>
+      </c>
+      <c r="B20" t="s">
+        <v>367</v>
+      </c>
+      <c r="C20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D20" t="s">
+        <v>366</v>
+      </c>
+      <c r="E20" t="s">
+        <v>364</v>
+      </c>
+      <c r="F20" t="s">
+        <v>368</v>
+      </c>
+      <c r="G20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>369</v>
+      </c>
+      <c r="B21" t="s">
+        <v>371</v>
+      </c>
+      <c r="C21" t="s">
+        <v>373</v>
+      </c>
+      <c r="D21" t="s">
+        <v>372</v>
+      </c>
+      <c r="E21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F21" t="s">
+        <v>374</v>
+      </c>
+      <c r="G21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>357</v>
+      </c>
+      <c r="B22" t="s">
+        <v>361</v>
+      </c>
+      <c r="C22" t="s">
+        <v>360</v>
+      </c>
+      <c r="D22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" t="s">
+        <v>359</v>
+      </c>
+      <c r="F22" t="s">
+        <v>362</v>
+      </c>
+      <c r="G22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>363</v>
+      </c>
+      <c r="B23" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" t="s">
+        <v>366</v>
+      </c>
+      <c r="D23" t="s">
+        <v>367</v>
+      </c>
+      <c r="E23" t="s">
+        <v>365</v>
+      </c>
+      <c r="F23" t="s">
+        <v>368</v>
+      </c>
+      <c r="G23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>369</v>
+      </c>
+      <c r="B24" t="s">
+        <v>372</v>
+      </c>
+      <c r="C24" t="s">
+        <v>370</v>
+      </c>
+      <c r="D24" t="s">
+        <v>373</v>
+      </c>
+      <c r="E24" t="s">
+        <v>371</v>
+      </c>
+      <c r="F24" t="s">
+        <v>374</v>
+      </c>
+      <c r="G24" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" t="s">
+        <v>360</v>
+      </c>
+      <c r="C25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D25" t="s">
+        <v>361</v>
+      </c>
+      <c r="E25" t="s">
+        <v>358</v>
+      </c>
+      <c r="F25" t="s">
+        <v>362</v>
+      </c>
+      <c r="G25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>363</v>
+      </c>
+      <c r="B26" t="s">
+        <v>366</v>
+      </c>
+      <c r="C26" t="s">
+        <v>364</v>
+      </c>
+      <c r="D26" t="s">
+        <v>365</v>
+      </c>
+      <c r="E26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G26" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>369</v>
+      </c>
+      <c r="B27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C27" t="s">
+        <v>372</v>
+      </c>
+      <c r="D27" t="s">
+        <v>370</v>
+      </c>
+      <c r="E27" t="s">
+        <v>373</v>
+      </c>
+      <c r="F27" t="s">
+        <v>374</v>
+      </c>
+      <c r="G27" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>357</v>
+      </c>
+      <c r="B28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C28" t="s">
+        <v>358</v>
+      </c>
+      <c r="D28" t="s">
+        <v>361</v>
+      </c>
+      <c r="E28" t="s">
+        <v>359</v>
+      </c>
+      <c r="F28" t="s">
+        <v>362</v>
+      </c>
+      <c r="G28" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>363</v>
+      </c>
+      <c r="B29" t="s">
+        <v>367</v>
+      </c>
+      <c r="C29" t="s">
+        <v>364</v>
+      </c>
+      <c r="D29" t="s">
+        <v>365</v>
+      </c>
+      <c r="E29" t="s">
+        <v>366</v>
+      </c>
+      <c r="F29" t="s">
+        <v>368</v>
+      </c>
+      <c r="G29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>369</v>
+      </c>
+      <c r="B30" t="s">
+        <v>373</v>
+      </c>
+      <c r="C30" t="s">
+        <v>370</v>
+      </c>
+      <c r="D30" t="s">
+        <v>371</v>
+      </c>
+      <c r="E30" t="s">
+        <v>372</v>
+      </c>
+      <c r="F30" t="s">
+        <v>374</v>
+      </c>
+      <c r="G30" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>357</v>
+      </c>
+      <c r="B31" t="s">
+        <v>360</v>
+      </c>
+      <c r="C31" t="s">
+        <v>359</v>
+      </c>
+      <c r="D31" t="s">
+        <v>361</v>
+      </c>
+      <c r="E31" t="s">
+        <v>358</v>
+      </c>
+      <c r="F31" t="s">
+        <v>362</v>
+      </c>
+      <c r="G31" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>363</v>
+      </c>
+      <c r="B32" t="s">
+        <v>364</v>
+      </c>
+      <c r="C32" t="s">
+        <v>365</v>
+      </c>
+      <c r="D32" t="s">
+        <v>367</v>
+      </c>
+      <c r="E32" t="s">
+        <v>366</v>
+      </c>
+      <c r="F32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G32" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>369</v>
+      </c>
+      <c r="B33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C33" t="s">
+        <v>370</v>
+      </c>
+      <c r="D33" t="s">
+        <v>371</v>
+      </c>
+      <c r="E33" t="s">
+        <v>373</v>
+      </c>
+      <c r="F33" t="s">
+        <v>374</v>
+      </c>
+      <c r="G33" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>357</v>
+      </c>
+      <c r="B34" t="s">
+        <v>359</v>
+      </c>
+      <c r="C34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D34" t="s">
+        <v>360</v>
+      </c>
+      <c r="E34" t="s">
+        <v>358</v>
+      </c>
+      <c r="F34" t="s">
+        <v>362</v>
+      </c>
+      <c r="G34" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>363</v>
+      </c>
+      <c r="B35" t="s">
+        <v>367</v>
+      </c>
+      <c r="C35" t="s">
+        <v>365</v>
+      </c>
+      <c r="D35" t="s">
+        <v>364</v>
+      </c>
+      <c r="E35" t="s">
+        <v>366</v>
+      </c>
+      <c r="F35" t="s">
+        <v>368</v>
+      </c>
+      <c r="G35" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>375</v>
+      </c>
+      <c r="B36" t="s">
+        <v>376</v>
+      </c>
+      <c r="C36" t="s">
+        <v>377</v>
+      </c>
+      <c r="D36">
+        <v>1917</v>
+      </c>
+      <c r="E36" t="s">
+        <v>378</v>
+      </c>
+      <c r="F36" t="s">
+        <v>379</v>
+      </c>
+      <c r="G36" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>380</v>
+      </c>
+      <c r="B37" t="s">
+        <v>381</v>
+      </c>
+      <c r="C37" t="s">
+        <v>382</v>
+      </c>
+      <c r="D37" t="s">
+        <v>383</v>
+      </c>
+      <c r="E37" t="s">
+        <v>384</v>
+      </c>
+      <c r="F37" t="s">
+        <v>385</v>
+      </c>
+      <c r="G37" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>386</v>
+      </c>
+      <c r="B38" t="s">
+        <v>387</v>
+      </c>
+      <c r="C38" t="s">
+        <v>388</v>
+      </c>
+      <c r="D38" t="s">
+        <v>389</v>
+      </c>
+      <c r="E38" t="s">
+        <v>390</v>
+      </c>
+      <c r="F38" t="s">
+        <v>391</v>
+      </c>
+      <c r="G38" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>375</v>
+      </c>
+      <c r="B39" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" t="s">
+        <v>377</v>
+      </c>
+      <c r="D39" t="s">
+        <v>376</v>
+      </c>
+      <c r="E39">
+        <v>1917</v>
+      </c>
+      <c r="F39" t="s">
+        <v>379</v>
+      </c>
+      <c r="G39" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>380</v>
+      </c>
+      <c r="B40" t="s">
+        <v>383</v>
+      </c>
+      <c r="C40" t="s">
+        <v>381</v>
+      </c>
+      <c r="D40" t="s">
+        <v>382</v>
+      </c>
+      <c r="E40" t="s">
+        <v>384</v>
+      </c>
+      <c r="F40" t="s">
+        <v>385</v>
+      </c>
+      <c r="G40" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>386</v>
+      </c>
+      <c r="B41" t="s">
+        <v>388</v>
+      </c>
+      <c r="C41" t="s">
+        <v>389</v>
+      </c>
+      <c r="D41" t="s">
+        <v>387</v>
+      </c>
+      <c r="E41" t="s">
+        <v>390</v>
+      </c>
+      <c r="F41" t="s">
+        <v>391</v>
+      </c>
+      <c r="G41" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>375</v>
+      </c>
+      <c r="B42" t="s">
+        <v>376</v>
+      </c>
+      <c r="C42" t="s">
+        <v>378</v>
+      </c>
+      <c r="D42">
+        <v>1917</v>
+      </c>
+      <c r="E42" t="s">
+        <v>377</v>
+      </c>
+      <c r="F42" t="s">
+        <v>379</v>
+      </c>
+      <c r="G42" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>380</v>
+      </c>
+      <c r="B43" t="s">
+        <v>383</v>
+      </c>
+      <c r="C43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D43" t="s">
+        <v>384</v>
+      </c>
+      <c r="E43" t="s">
+        <v>381</v>
+      </c>
+      <c r="F43" t="s">
+        <v>385</v>
+      </c>
+      <c r="G43" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>386</v>
+      </c>
+      <c r="B44" t="s">
+        <v>389</v>
+      </c>
+      <c r="C44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D44" t="s">
+        <v>387</v>
+      </c>
+      <c r="E44" t="s">
+        <v>388</v>
+      </c>
+      <c r="F44" t="s">
+        <v>391</v>
+      </c>
+      <c r="G44" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>375</v>
+      </c>
+      <c r="B45" t="s">
+        <v>378</v>
+      </c>
+      <c r="C45" t="s">
+        <v>376</v>
+      </c>
+      <c r="D45" t="s">
+        <v>377</v>
+      </c>
+      <c r="E45">
+        <v>1917</v>
+      </c>
+      <c r="F45" t="s">
+        <v>379</v>
+      </c>
+      <c r="G45" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>380</v>
+      </c>
+      <c r="B46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C46" t="s">
+        <v>383</v>
+      </c>
+      <c r="D46" t="s">
+        <v>382</v>
+      </c>
+      <c r="E46" t="s">
+        <v>384</v>
+      </c>
+      <c r="F46" t="s">
+        <v>385</v>
+      </c>
+      <c r="G46" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>386</v>
+      </c>
+      <c r="B47" t="s">
+        <v>389</v>
+      </c>
+      <c r="C47" t="s">
+        <v>387</v>
+      </c>
+      <c r="D47" t="s">
+        <v>388</v>
+      </c>
+      <c r="E47" t="s">
+        <v>390</v>
+      </c>
+      <c r="F47" t="s">
+        <v>391</v>
+      </c>
+      <c r="G47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>375</v>
+      </c>
+      <c r="B48" t="s">
+        <v>377</v>
+      </c>
+      <c r="C48">
+        <v>1917</v>
+      </c>
+      <c r="D48" t="s">
+        <v>378</v>
+      </c>
+      <c r="E48" t="s">
+        <v>376</v>
+      </c>
+      <c r="F48" t="s">
+        <v>379</v>
+      </c>
+      <c r="G48" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>380</v>
+      </c>
+      <c r="B49" t="s">
+        <v>383</v>
+      </c>
+      <c r="C49" t="s">
+        <v>382</v>
+      </c>
+      <c r="D49" t="s">
+        <v>381</v>
+      </c>
+      <c r="E49" t="s">
+        <v>384</v>
+      </c>
+      <c r="F49" t="s">
+        <v>385</v>
+      </c>
+      <c r="G49" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>386</v>
+      </c>
+      <c r="B50" t="s">
+        <v>389</v>
+      </c>
+      <c r="C50" t="s">
+        <v>390</v>
+      </c>
+      <c r="D50" t="s">
+        <v>388</v>
+      </c>
+      <c r="E50" t="s">
+        <v>387</v>
+      </c>
+      <c r="F50" t="s">
+        <v>391</v>
+      </c>
+      <c r="G50" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>375</v>
+      </c>
+      <c r="B51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C51" t="s">
+        <v>376</v>
+      </c>
+      <c r="D51">
+        <v>1917</v>
+      </c>
+      <c r="E51" t="s">
+        <v>378</v>
+      </c>
+      <c r="F51" t="s">
+        <v>379</v>
+      </c>
+      <c r="G51" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>380</v>
+      </c>
+      <c r="B52" t="s">
+        <v>381</v>
+      </c>
+      <c r="C52" t="s">
+        <v>382</v>
+      </c>
+      <c r="D52" t="s">
+        <v>384</v>
+      </c>
+      <c r="E52" t="s">
+        <v>383</v>
+      </c>
+      <c r="F52" t="s">
+        <v>385</v>
+      </c>
+      <c r="G52" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>386</v>
+      </c>
+      <c r="B53" t="s">
+        <v>388</v>
+      </c>
+      <c r="C53" t="s">
+        <v>390</v>
+      </c>
+      <c r="D53" t="s">
+        <v>389</v>
+      </c>
+      <c r="E53" t="s">
+        <v>387</v>
+      </c>
+      <c r="F53" t="s">
+        <v>391</v>
+      </c>
+      <c r="G53" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>375</v>
+      </c>
+      <c r="B54" t="s">
+        <v>378</v>
+      </c>
+      <c r="C54" t="s">
+        <v>376</v>
+      </c>
+      <c r="D54" t="s">
+        <v>377</v>
+      </c>
+      <c r="E54">
+        <v>1917</v>
+      </c>
+      <c r="F54" t="s">
+        <v>379</v>
+      </c>
+      <c r="G54" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>380</v>
+      </c>
+      <c r="B55" t="s">
+        <v>384</v>
+      </c>
+      <c r="C55" t="s">
+        <v>382</v>
+      </c>
+      <c r="D55" t="s">
+        <v>383</v>
+      </c>
+      <c r="E55" t="s">
+        <v>381</v>
+      </c>
+      <c r="F55" t="s">
+        <v>385</v>
+      </c>
+      <c r="G55" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>386</v>
+      </c>
+      <c r="B56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C56" t="s">
+        <v>387</v>
+      </c>
+      <c r="D56" t="s">
+        <v>390</v>
+      </c>
+      <c r="E56" t="s">
+        <v>389</v>
+      </c>
+      <c r="F56" t="s">
+        <v>391</v>
+      </c>
+      <c r="G56" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>375</v>
+      </c>
+      <c r="B57" t="s">
+        <v>377</v>
+      </c>
+      <c r="C57" t="s">
+        <v>376</v>
+      </c>
+      <c r="D57">
+        <v>1917</v>
+      </c>
+      <c r="E57" t="s">
+        <v>378</v>
+      </c>
+      <c r="F57" t="s">
+        <v>379</v>
+      </c>
+      <c r="G57" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>380</v>
+      </c>
+      <c r="B58" t="s">
+        <v>384</v>
+      </c>
+      <c r="C58" t="s">
+        <v>382</v>
+      </c>
+      <c r="D58" t="s">
+        <v>381</v>
+      </c>
+      <c r="E58" t="s">
+        <v>383</v>
+      </c>
+      <c r="F58" t="s">
+        <v>385</v>
+      </c>
+      <c r="G58" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>386</v>
+      </c>
+      <c r="B59" t="s">
+        <v>389</v>
+      </c>
+      <c r="C59" t="s">
+        <v>387</v>
+      </c>
+      <c r="D59" t="s">
+        <v>390</v>
+      </c>
+      <c r="E59" t="s">
+        <v>388</v>
+      </c>
+      <c r="F59" t="s">
+        <v>391</v>
+      </c>
+      <c r="G59" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>375</v>
+      </c>
+      <c r="B60" t="s">
+        <v>376</v>
+      </c>
+      <c r="C60" t="s">
+        <v>377</v>
+      </c>
+      <c r="D60">
+        <v>1917</v>
+      </c>
+      <c r="E60" t="s">
+        <v>378</v>
+      </c>
+      <c r="F60" t="s">
+        <v>379</v>
+      </c>
+      <c r="G60" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>380</v>
+      </c>
+      <c r="B61" t="s">
+        <v>382</v>
+      </c>
+      <c r="C61" t="s">
+        <v>383</v>
+      </c>
+      <c r="D61" t="s">
+        <v>384</v>
+      </c>
+      <c r="E61" t="s">
+        <v>381</v>
+      </c>
+      <c r="F61" t="s">
+        <v>385</v>
+      </c>
+      <c r="G61" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>386</v>
+      </c>
+      <c r="B62" t="s">
+        <v>390</v>
+      </c>
+      <c r="C62" t="s">
+        <v>389</v>
+      </c>
+      <c r="D62" t="s">
+        <v>387</v>
+      </c>
+      <c r="E62" t="s">
+        <v>388</v>
+      </c>
+      <c r="F62" t="s">
+        <v>391</v>
+      </c>
+      <c r="G62" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>375</v>
+      </c>
+      <c r="B63" t="s">
+        <v>376</v>
+      </c>
+      <c r="C63" t="s">
+        <v>378</v>
+      </c>
+      <c r="D63" t="s">
+        <v>377</v>
+      </c>
+      <c r="E63">
+        <v>1917</v>
+      </c>
+      <c r="F63" t="s">
+        <v>379</v>
+      </c>
+      <c r="G63" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>380</v>
+      </c>
+      <c r="B64" t="s">
+        <v>381</v>
+      </c>
+      <c r="C64" t="s">
+        <v>384</v>
+      </c>
+      <c r="D64" t="s">
+        <v>382</v>
+      </c>
+      <c r="E64" t="s">
+        <v>383</v>
+      </c>
+      <c r="F64" t="s">
+        <v>385</v>
+      </c>
+      <c r="G64" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>386</v>
+      </c>
+      <c r="B65" t="s">
+        <v>389</v>
+      </c>
+      <c r="C65" t="s">
+        <v>388</v>
+      </c>
+      <c r="D65" t="s">
+        <v>390</v>
+      </c>
+      <c r="E65" t="s">
+        <v>387</v>
+      </c>
+      <c r="F65" t="s">
+        <v>391</v>
+      </c>
+      <c r="G65" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>375</v>
+      </c>
+      <c r="B66" t="s">
+        <v>378</v>
+      </c>
+      <c r="C66">
+        <v>1917</v>
+      </c>
+      <c r="D66" t="s">
+        <v>376</v>
+      </c>
+      <c r="E66" t="s">
+        <v>377</v>
+      </c>
+      <c r="F66" t="s">
+        <v>379</v>
+      </c>
+      <c r="G66" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>380</v>
+      </c>
+      <c r="B67" t="s">
+        <v>383</v>
+      </c>
+      <c r="C67" t="s">
+        <v>381</v>
+      </c>
+      <c r="D67" t="s">
+        <v>384</v>
+      </c>
+      <c r="E67" t="s">
+        <v>382</v>
+      </c>
+      <c r="F67" t="s">
+        <v>385</v>
+      </c>
+      <c r="G67" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>386</v>
+      </c>
+      <c r="B68" t="s">
+        <v>389</v>
+      </c>
+      <c r="C68" t="s">
+        <v>387</v>
+      </c>
+      <c r="D68" t="s">
+        <v>388</v>
+      </c>
+      <c r="E68" t="s">
+        <v>390</v>
+      </c>
+      <c r="F68" t="s">
+        <v>391</v>
+      </c>
+      <c r="G68" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>375</v>
+      </c>
+      <c r="B69" t="s">
+        <v>378</v>
+      </c>
+      <c r="C69" t="s">
+        <v>376</v>
+      </c>
+      <c r="D69" t="s">
+        <v>377</v>
+      </c>
+      <c r="E69">
+        <v>1917</v>
+      </c>
+      <c r="F69" t="s">
+        <v>379</v>
+      </c>
+      <c r="G69" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>380</v>
+      </c>
+      <c r="B70" t="s">
+        <v>382</v>
+      </c>
+      <c r="C70" t="s">
+        <v>383</v>
+      </c>
+      <c r="D70" t="s">
+        <v>384</v>
+      </c>
+      <c r="E70" t="s">
+        <v>381</v>
+      </c>
+      <c r="F70" t="s">
+        <v>385</v>
+      </c>
+      <c r="G70" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>392</v>
+      </c>
+      <c r="B71" t="s">
+        <v>393</v>
+      </c>
+      <c r="C71" t="s">
+        <v>394</v>
+      </c>
+      <c r="D71" t="s">
+        <v>395</v>
+      </c>
+      <c r="E71" t="s">
+        <v>396</v>
+      </c>
+      <c r="F71" t="s">
+        <v>397</v>
+      </c>
+      <c r="G71" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>398</v>
+      </c>
+      <c r="B72" t="s">
+        <v>399</v>
+      </c>
+      <c r="C72" t="s">
+        <v>400</v>
+      </c>
+      <c r="D72" t="s">
+        <v>401</v>
+      </c>
+      <c r="E72" t="s">
+        <v>402</v>
+      </c>
+      <c r="F72" t="s">
+        <v>403</v>
+      </c>
+      <c r="G72" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>404</v>
+      </c>
+      <c r="B73" t="s">
+        <v>405</v>
+      </c>
+      <c r="C73" t="s">
+        <v>406</v>
+      </c>
+      <c r="D73" t="s">
+        <v>407</v>
+      </c>
+      <c r="E73" t="s">
+        <v>408</v>
+      </c>
+      <c r="F73" t="s">
+        <v>409</v>
+      </c>
+      <c r="G73" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>392</v>
+      </c>
+      <c r="B74" t="s">
+        <v>394</v>
+      </c>
+      <c r="C74" t="s">
+        <v>396</v>
+      </c>
+      <c r="D74" t="s">
+        <v>393</v>
+      </c>
+      <c r="E74" t="s">
+        <v>395</v>
+      </c>
+      <c r="F74" t="s">
+        <v>397</v>
+      </c>
+      <c r="G74" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>398</v>
+      </c>
+      <c r="B75" t="s">
+        <v>402</v>
+      </c>
+      <c r="C75" t="s">
+        <v>401</v>
+      </c>
+      <c r="D75" t="s">
+        <v>399</v>
+      </c>
+      <c r="E75" t="s">
+        <v>400</v>
+      </c>
+      <c r="F75" t="s">
+        <v>403</v>
+      </c>
+      <c r="G75" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>404</v>
+      </c>
+      <c r="B76" t="s">
+        <v>407</v>
+      </c>
+      <c r="C76" t="s">
+        <v>408</v>
+      </c>
+      <c r="D76" t="s">
+        <v>406</v>
+      </c>
+      <c r="E76" t="s">
+        <v>405</v>
+      </c>
+      <c r="F76" t="s">
+        <v>409</v>
+      </c>
+      <c r="G76" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>392</v>
+      </c>
+      <c r="B77" t="s">
+        <v>396</v>
+      </c>
+      <c r="C77" t="s">
+        <v>393</v>
+      </c>
+      <c r="D77" t="s">
+        <v>394</v>
+      </c>
+      <c r="E77" t="s">
+        <v>395</v>
+      </c>
+      <c r="F77" t="s">
+        <v>397</v>
+      </c>
+      <c r="G77" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>398</v>
+      </c>
+      <c r="B78" t="s">
+        <v>402</v>
+      </c>
+      <c r="C78" t="s">
+        <v>399</v>
+      </c>
+      <c r="D78" t="s">
+        <v>401</v>
+      </c>
+      <c r="E78" t="s">
+        <v>400</v>
+      </c>
+      <c r="F78" t="s">
+        <v>403</v>
+      </c>
+      <c r="G78" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>404</v>
+      </c>
+      <c r="B79" t="s">
+        <v>408</v>
+      </c>
+      <c r="C79" t="s">
+        <v>407</v>
+      </c>
+      <c r="D79" t="s">
+        <v>405</v>
+      </c>
+      <c r="E79" t="s">
+        <v>406</v>
+      </c>
+      <c r="F79" t="s">
+        <v>409</v>
+      </c>
+      <c r="G79" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>392</v>
+      </c>
+      <c r="B80" t="s">
+        <v>395</v>
+      </c>
+      <c r="C80" t="s">
+        <v>396</v>
+      </c>
+      <c r="D80" t="s">
+        <v>393</v>
+      </c>
+      <c r="E80" t="s">
+        <v>394</v>
+      </c>
+      <c r="F80" t="s">
+        <v>397</v>
+      </c>
+      <c r="G80" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>398</v>
+      </c>
+      <c r="B81" t="s">
+        <v>402</v>
+      </c>
+      <c r="C81" t="s">
+        <v>399</v>
+      </c>
+      <c r="D81" t="s">
+        <v>400</v>
+      </c>
+      <c r="E81" t="s">
+        <v>401</v>
+      </c>
+      <c r="F81" t="s">
+        <v>403</v>
+      </c>
+      <c r="G81" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>404</v>
+      </c>
+      <c r="B82" t="s">
+        <v>408</v>
+      </c>
+      <c r="C82" t="s">
+        <v>406</v>
+      </c>
+      <c r="D82" t="s">
+        <v>405</v>
+      </c>
+      <c r="E82" t="s">
+        <v>407</v>
+      </c>
+      <c r="F82" t="s">
+        <v>409</v>
+      </c>
+      <c r="G82" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>392</v>
+      </c>
+      <c r="B83" t="s">
+        <v>393</v>
+      </c>
+      <c r="C83" t="s">
+        <v>395</v>
+      </c>
+      <c r="D83" t="s">
+        <v>394</v>
+      </c>
+      <c r="E83" t="s">
+        <v>396</v>
+      </c>
+      <c r="F83" t="s">
+        <v>397</v>
+      </c>
+      <c r="G83" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>398</v>
+      </c>
+      <c r="B84" t="s">
+        <v>399</v>
+      </c>
+      <c r="C84" t="s">
+        <v>402</v>
+      </c>
+      <c r="D84" t="s">
+        <v>401</v>
+      </c>
+      <c r="E84" t="s">
+        <v>400</v>
+      </c>
+      <c r="F84" t="s">
+        <v>403</v>
+      </c>
+      <c r="G84" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>404</v>
+      </c>
+      <c r="B85" t="s">
+        <v>405</v>
+      </c>
+      <c r="C85" t="s">
+        <v>407</v>
+      </c>
+      <c r="D85" t="s">
+        <v>406</v>
+      </c>
+      <c r="E85" t="s">
+        <v>408</v>
+      </c>
+      <c r="F85" t="s">
+        <v>409</v>
+      </c>
+      <c r="G85" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>392</v>
+      </c>
+      <c r="B86" t="s">
+        <v>394</v>
+      </c>
+      <c r="C86" t="s">
+        <v>393</v>
+      </c>
+      <c r="D86" t="s">
+        <v>395</v>
+      </c>
+      <c r="E86" t="s">
+        <v>396</v>
+      </c>
+      <c r="F86" t="s">
+        <v>397</v>
+      </c>
+      <c r="G86" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>398</v>
+      </c>
+      <c r="B87" t="s">
+        <v>399</v>
+      </c>
+      <c r="C87" t="s">
+        <v>401</v>
+      </c>
+      <c r="D87" t="s">
+        <v>402</v>
+      </c>
+      <c r="E87" t="s">
+        <v>400</v>
+      </c>
+      <c r="F87" t="s">
+        <v>403</v>
+      </c>
+      <c r="G87" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>404</v>
+      </c>
+      <c r="B88" t="s">
+        <v>408</v>
+      </c>
+      <c r="C88" t="s">
+        <v>406</v>
+      </c>
+      <c r="D88" t="s">
+        <v>405</v>
+      </c>
+      <c r="E88" t="s">
+        <v>407</v>
+      </c>
+      <c r="F88" t="s">
+        <v>409</v>
+      </c>
+      <c r="G88" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>392</v>
+      </c>
+      <c r="B89" t="s">
+        <v>393</v>
+      </c>
+      <c r="C89" t="s">
+        <v>395</v>
+      </c>
+      <c r="D89" t="s">
+        <v>394</v>
+      </c>
+      <c r="E89" t="s">
+        <v>396</v>
+      </c>
+      <c r="F89" t="s">
+        <v>397</v>
+      </c>
+      <c r="G89" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>398</v>
+      </c>
+      <c r="B90" t="s">
+        <v>402</v>
+      </c>
+      <c r="C90" t="s">
+        <v>400</v>
+      </c>
+      <c r="D90" t="s">
+        <v>399</v>
+      </c>
+      <c r="E90" t="s">
+        <v>401</v>
+      </c>
+      <c r="F90" t="s">
+        <v>403</v>
+      </c>
+      <c r="G90" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>404</v>
+      </c>
+      <c r="B91" t="s">
+        <v>405</v>
+      </c>
+      <c r="C91" t="s">
+        <v>408</v>
+      </c>
+      <c r="D91" t="s">
+        <v>407</v>
+      </c>
+      <c r="E91" t="s">
+        <v>406</v>
+      </c>
+      <c r="F91" t="s">
+        <v>409</v>
+      </c>
+      <c r="G91" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>392</v>
+      </c>
+      <c r="B92" t="s">
+        <v>396</v>
+      </c>
+      <c r="C92" t="s">
+        <v>395</v>
+      </c>
+      <c r="D92" t="s">
+        <v>394</v>
+      </c>
+      <c r="E92" t="s">
+        <v>393</v>
+      </c>
+      <c r="F92" t="s">
+        <v>397</v>
+      </c>
+      <c r="G92" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>398</v>
+      </c>
+      <c r="B93" t="s">
+        <v>402</v>
+      </c>
+      <c r="C93" t="s">
+        <v>400</v>
+      </c>
+      <c r="D93" t="s">
+        <v>401</v>
+      </c>
+      <c r="E93" t="s">
+        <v>399</v>
+      </c>
+      <c r="F93" t="s">
+        <v>403</v>
+      </c>
+      <c r="G93" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>404</v>
+      </c>
+      <c r="B94" t="s">
+        <v>407</v>
+      </c>
+      <c r="C94" t="s">
+        <v>405</v>
+      </c>
+      <c r="D94" t="s">
+        <v>406</v>
+      </c>
+      <c r="E94" t="s">
+        <v>408</v>
+      </c>
+      <c r="F94" t="s">
+        <v>409</v>
+      </c>
+      <c r="G94" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>392</v>
+      </c>
+      <c r="B95" t="s">
+        <v>395</v>
+      </c>
+      <c r="C95" t="s">
+        <v>396</v>
+      </c>
+      <c r="D95" t="s">
+        <v>394</v>
+      </c>
+      <c r="E95" t="s">
+        <v>393</v>
+      </c>
+      <c r="F95" t="s">
+        <v>397</v>
+      </c>
+      <c r="G95" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>398</v>
+      </c>
+      <c r="B96" t="s">
+        <v>401</v>
+      </c>
+      <c r="C96" t="s">
+        <v>399</v>
+      </c>
+      <c r="D96" t="s">
+        <v>400</v>
+      </c>
+      <c r="E96" t="s">
+        <v>402</v>
+      </c>
+      <c r="F96" t="s">
+        <v>403</v>
+      </c>
+      <c r="G96" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>404</v>
+      </c>
+      <c r="B97" t="s">
+        <v>405</v>
+      </c>
+      <c r="C97" t="s">
+        <v>407</v>
+      </c>
+      <c r="D97" t="s">
+        <v>406</v>
+      </c>
+      <c r="E97" t="s">
+        <v>408</v>
+      </c>
+      <c r="F97" t="s">
+        <v>409</v>
+      </c>
+      <c r="G97" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>392</v>
+      </c>
+      <c r="B98" t="s">
+        <v>393</v>
+      </c>
+      <c r="C98" t="s">
+        <v>396</v>
+      </c>
+      <c r="D98" t="s">
+        <v>394</v>
+      </c>
+      <c r="E98" t="s">
+        <v>395</v>
+      </c>
+      <c r="F98" t="s">
+        <v>397</v>
+      </c>
+      <c r="G98" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>398</v>
+      </c>
+      <c r="B99" t="s">
+        <v>400</v>
+      </c>
+      <c r="C99" t="s">
+        <v>401</v>
+      </c>
+      <c r="D99" t="s">
+        <v>399</v>
+      </c>
+      <c r="E99" t="s">
+        <v>402</v>
+      </c>
+      <c r="F99" t="s">
+        <v>403</v>
+      </c>
+      <c r="G99" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>404</v>
+      </c>
+      <c r="B100" t="s">
+        <v>406</v>
+      </c>
+      <c r="C100" t="s">
+        <v>407</v>
+      </c>
+      <c r="D100" t="s">
+        <v>405</v>
+      </c>
+      <c r="E100" t="s">
+        <v>408</v>
+      </c>
+      <c r="F100" t="s">
+        <v>409</v>
+      </c>
+      <c r="G100" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>392</v>
+      </c>
+      <c r="B101" t="s">
+        <v>393</v>
+      </c>
+      <c r="C101" t="s">
+        <v>395</v>
+      </c>
+      <c r="D101" t="s">
+        <v>396</v>
+      </c>
+      <c r="E101" t="s">
+        <v>394</v>
+      </c>
+      <c r="F101" t="s">
+        <v>397</v>
+      </c>
+      <c r="G101" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>398</v>
+      </c>
+      <c r="B102" t="s">
+        <v>400</v>
+      </c>
+      <c r="C102" t="s">
+        <v>402</v>
+      </c>
+      <c r="D102" t="s">
+        <v>399</v>
+      </c>
+      <c r="E102" t="s">
+        <v>401</v>
+      </c>
+      <c r="F102" t="s">
+        <v>403</v>
+      </c>
+      <c r="G102" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>404</v>
+      </c>
+      <c r="B103" t="s">
+        <v>407</v>
+      </c>
+      <c r="C103" t="s">
+        <v>408</v>
+      </c>
+      <c r="D103" t="s">
+        <v>406</v>
+      </c>
+      <c r="E103" t="s">
+        <v>405</v>
+      </c>
+      <c r="F103" t="s">
+        <v>409</v>
+      </c>
+      <c r="G103" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>392</v>
+      </c>
+      <c r="B104" t="s">
+        <v>395</v>
+      </c>
+      <c r="C104" t="s">
+        <v>393</v>
+      </c>
+      <c r="D104" t="s">
+        <v>394</v>
+      </c>
+      <c r="E104" t="s">
+        <v>396</v>
+      </c>
+      <c r="F104" t="s">
+        <v>397</v>
+      </c>
+      <c r="G104" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>398</v>
+      </c>
+      <c r="B105" t="s">
+        <v>400</v>
+      </c>
+      <c r="C105" t="s">
+        <v>401</v>
+      </c>
+      <c r="D105" t="s">
+        <v>399</v>
+      </c>
+      <c r="E105" t="s">
+        <v>402</v>
+      </c>
+      <c r="F105" t="s">
+        <v>403</v>
+      </c>
+      <c r="G105" t="s">
+        <v>399</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F6" t="s">
+        <v>420</v>
+      </c>
+      <c r="G6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F8" t="s">
+        <v>414</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D9" t="s">
+        <v>417</v>
+      </c>
+      <c r="E9" t="s">
+        <v>416</v>
+      </c>
+      <c r="F9" t="s">
+        <v>420</v>
+      </c>
+      <c r="G9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>410</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" t="s">
+        <v>413</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>414</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D12" t="s">
+        <v>416</v>
+      </c>
+      <c r="E12" t="s">
+        <v>418</v>
+      </c>
+      <c r="F12" t="s">
+        <v>420</v>
+      </c>
+      <c r="G12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>410</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>411</v>
+      </c>
+      <c r="B14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" t="s">
+        <v>412</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>413</v>
+      </c>
+      <c r="F14" t="s">
+        <v>414</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15" t="s">
+        <v>419</v>
+      </c>
+      <c r="C15" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" t="s">
+        <v>417</v>
+      </c>
+      <c r="E15" t="s">
+        <v>418</v>
+      </c>
+      <c r="F15" t="s">
+        <v>420</v>
+      </c>
+      <c r="G15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>410</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" t="s">
+        <v>413</v>
+      </c>
+      <c r="E17" t="s">
+        <v>412</v>
+      </c>
+      <c r="F17" t="s">
+        <v>414</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>415</v>
+      </c>
+      <c r="B18" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" t="s">
+        <v>418</v>
+      </c>
+      <c r="D18" t="s">
+        <v>419</v>
+      </c>
+      <c r="E18" t="s">
+        <v>416</v>
+      </c>
+      <c r="F18" t="s">
+        <v>420</v>
+      </c>
+      <c r="G18" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>410</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>411</v>
+      </c>
+      <c r="B20" t="s">
+        <v>412</v>
+      </c>
+      <c r="C20" t="s">
+        <v>413</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>415</v>
+      </c>
+      <c r="B21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C21" t="s">
+        <v>418</v>
+      </c>
+      <c r="D21" t="s">
+        <v>419</v>
+      </c>
+      <c r="E21" t="s">
+        <v>416</v>
+      </c>
+      <c r="F21" t="s">
+        <v>420</v>
+      </c>
+      <c r="G21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>410</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>411</v>
+      </c>
+      <c r="B23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" t="s">
+        <v>413</v>
+      </c>
+      <c r="D23" t="s">
+        <v>412</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>415</v>
+      </c>
+      <c r="B24" t="s">
+        <v>417</v>
+      </c>
+      <c r="C24" t="s">
+        <v>416</v>
+      </c>
+      <c r="D24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E24" t="s">
+        <v>419</v>
+      </c>
+      <c r="F24" t="s">
+        <v>420</v>
+      </c>
+      <c r="G24" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>410</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>411</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26" t="s">
+        <v>413</v>
+      </c>
+      <c r="E26" t="s">
+        <v>412</v>
+      </c>
+      <c r="F26" t="s">
+        <v>414</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>415</v>
+      </c>
+      <c r="B27" t="s">
+        <v>417</v>
+      </c>
+      <c r="C27" t="s">
+        <v>419</v>
+      </c>
+      <c r="D27" t="s">
+        <v>416</v>
+      </c>
+      <c r="E27" t="s">
+        <v>418</v>
+      </c>
+      <c r="F27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G27" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>410</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>411</v>
+      </c>
+      <c r="B29" t="s">
+        <v>412</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>413</v>
+      </c>
+      <c r="E29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F29" t="s">
+        <v>414</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>415</v>
+      </c>
+      <c r="B30" t="s">
+        <v>417</v>
+      </c>
+      <c r="C30" t="s">
+        <v>416</v>
+      </c>
+      <c r="D30" t="s">
+        <v>418</v>
+      </c>
+      <c r="E30" t="s">
+        <v>419</v>
+      </c>
+      <c r="F30" t="s">
+        <v>420</v>
+      </c>
+      <c r="G30" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>410</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>411</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" t="s">
+        <v>412</v>
+      </c>
+      <c r="E32" t="s">
+        <v>413</v>
+      </c>
+      <c r="F32" t="s">
+        <v>414</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>415</v>
+      </c>
+      <c r="B33" t="s">
+        <v>418</v>
+      </c>
+      <c r="C33" t="s">
+        <v>417</v>
+      </c>
+      <c r="D33" t="s">
+        <v>416</v>
+      </c>
+      <c r="E33" t="s">
+        <v>419</v>
+      </c>
+      <c r="F33" t="s">
+        <v>420</v>
+      </c>
+      <c r="G33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>410</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>411</v>
+      </c>
+      <c r="B35" t="s">
+        <v>412</v>
+      </c>
+      <c r="C35" t="s">
+        <v>413</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" t="s">
+        <v>414</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>421</v>
+      </c>
+      <c r="B36" t="s">
+        <v>422</v>
+      </c>
+      <c r="C36" t="s">
+        <v>423</v>
+      </c>
+      <c r="D36" t="s">
+        <v>424</v>
+      </c>
+      <c r="E36" t="s">
+        <v>425</v>
+      </c>
+      <c r="F36" t="s">
+        <v>426</v>
+      </c>
+      <c r="G36" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>427</v>
+      </c>
+      <c r="B37" t="s">
+        <v>428</v>
+      </c>
+      <c r="C37" t="s">
+        <v>429</v>
+      </c>
+      <c r="D37" t="s">
+        <v>430</v>
+      </c>
+      <c r="E37" t="s">
+        <v>431</v>
+      </c>
+      <c r="F37" t="s">
+        <v>432</v>
+      </c>
+      <c r="G37" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>433</v>
+      </c>
+      <c r="B38" t="s">
+        <v>434</v>
+      </c>
+      <c r="C38" t="s">
+        <v>435</v>
+      </c>
+      <c r="D38" t="s">
+        <v>436</v>
+      </c>
+      <c r="E38" t="s">
+        <v>437</v>
+      </c>
+      <c r="F38" t="s">
+        <v>438</v>
+      </c>
+      <c r="G38" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>421</v>
+      </c>
+      <c r="B39" t="s">
+        <v>422</v>
+      </c>
+      <c r="C39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D39" t="s">
+        <v>423</v>
+      </c>
+      <c r="E39" t="s">
+        <v>425</v>
+      </c>
+      <c r="F39" t="s">
+        <v>426</v>
+      </c>
+      <c r="G39" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>427</v>
+      </c>
+      <c r="B40" t="s">
+        <v>430</v>
+      </c>
+      <c r="C40" t="s">
+        <v>428</v>
+      </c>
+      <c r="D40" t="s">
+        <v>429</v>
+      </c>
+      <c r="E40" t="s">
+        <v>431</v>
+      </c>
+      <c r="F40" t="s">
+        <v>432</v>
+      </c>
+      <c r="G40" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>433</v>
+      </c>
+      <c r="B41" t="s">
+        <v>437</v>
+      </c>
+      <c r="C41" t="s">
+        <v>434</v>
+      </c>
+      <c r="D41" t="s">
+        <v>435</v>
+      </c>
+      <c r="E41" t="s">
+        <v>436</v>
+      </c>
+      <c r="F41" t="s">
+        <v>438</v>
+      </c>
+      <c r="G41" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>421</v>
+      </c>
+      <c r="B42" t="s">
+        <v>424</v>
+      </c>
+      <c r="C42" t="s">
+        <v>423</v>
+      </c>
+      <c r="D42" t="s">
+        <v>422</v>
+      </c>
+      <c r="E42" t="s">
+        <v>425</v>
+      </c>
+      <c r="F42" t="s">
+        <v>426</v>
+      </c>
+      <c r="G42" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>427</v>
+      </c>
+      <c r="B43" t="s">
+        <v>429</v>
+      </c>
+      <c r="C43" t="s">
+        <v>431</v>
+      </c>
+      <c r="D43" t="s">
+        <v>430</v>
+      </c>
+      <c r="E43" t="s">
+        <v>428</v>
+      </c>
+      <c r="F43" t="s">
+        <v>432</v>
+      </c>
+      <c r="G43" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>433</v>
+      </c>
+      <c r="B44" t="s">
+        <v>435</v>
+      </c>
+      <c r="C44" t="s">
+        <v>437</v>
+      </c>
+      <c r="D44" t="s">
+        <v>436</v>
+      </c>
+      <c r="E44" t="s">
+        <v>434</v>
+      </c>
+      <c r="F44" t="s">
+        <v>438</v>
+      </c>
+      <c r="G44" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>421</v>
+      </c>
+      <c r="B45" t="s">
+        <v>422</v>
+      </c>
+      <c r="C45" t="s">
+        <v>423</v>
+      </c>
+      <c r="D45" t="s">
+        <v>424</v>
+      </c>
+      <c r="E45" t="s">
+        <v>425</v>
+      </c>
+      <c r="F45" t="s">
+        <v>426</v>
+      </c>
+      <c r="G45" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>427</v>
+      </c>
+      <c r="B46" t="s">
+        <v>430</v>
+      </c>
+      <c r="C46" t="s">
+        <v>431</v>
+      </c>
+      <c r="D46" t="s">
+        <v>428</v>
+      </c>
+      <c r="E46" t="s">
+        <v>429</v>
+      </c>
+      <c r="F46" t="s">
+        <v>432</v>
+      </c>
+      <c r="G46" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>433</v>
+      </c>
+      <c r="B47" t="s">
+        <v>435</v>
+      </c>
+      <c r="C47" t="s">
+        <v>434</v>
+      </c>
+      <c r="D47" t="s">
+        <v>437</v>
+      </c>
+      <c r="E47" t="s">
+        <v>436</v>
+      </c>
+      <c r="F47" t="s">
+        <v>438</v>
+      </c>
+      <c r="G47" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>421</v>
+      </c>
+      <c r="B48" t="s">
+        <v>423</v>
+      </c>
+      <c r="C48" t="s">
+        <v>422</v>
+      </c>
+      <c r="D48" t="s">
+        <v>424</v>
+      </c>
+      <c r="E48" t="s">
+        <v>425</v>
+      </c>
+      <c r="F48" t="s">
+        <v>426</v>
+      </c>
+      <c r="G48" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>427</v>
+      </c>
+      <c r="B49" t="s">
+        <v>431</v>
+      </c>
+      <c r="C49" t="s">
+        <v>430</v>
+      </c>
+      <c r="D49" t="s">
+        <v>429</v>
+      </c>
+      <c r="E49" t="s">
+        <v>428</v>
+      </c>
+      <c r="F49" t="s">
+        <v>432</v>
+      </c>
+      <c r="G49" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>433</v>
+      </c>
+      <c r="B50" t="s">
+        <v>435</v>
+      </c>
+      <c r="C50" t="s">
+        <v>437</v>
+      </c>
+      <c r="D50" t="s">
+        <v>436</v>
+      </c>
+      <c r="E50" t="s">
+        <v>434</v>
+      </c>
+      <c r="F50" t="s">
+        <v>438</v>
+      </c>
+      <c r="G50" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>421</v>
+      </c>
+      <c r="B51" t="s">
+        <v>425</v>
+      </c>
+      <c r="C51" t="s">
+        <v>423</v>
+      </c>
+      <c r="D51" t="s">
+        <v>424</v>
+      </c>
+      <c r="E51" t="s">
+        <v>422</v>
+      </c>
+      <c r="F51" t="s">
+        <v>426</v>
+      </c>
+      <c r="G51" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>427</v>
+      </c>
+      <c r="B52" t="s">
+        <v>431</v>
+      </c>
+      <c r="C52" t="s">
+        <v>430</v>
+      </c>
+      <c r="D52" t="s">
+        <v>428</v>
+      </c>
+      <c r="E52" t="s">
+        <v>429</v>
+      </c>
+      <c r="F52" t="s">
+        <v>432</v>
+      </c>
+      <c r="G52" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>433</v>
+      </c>
+      <c r="B53" t="s">
+        <v>436</v>
+      </c>
+      <c r="C53" t="s">
+        <v>435</v>
+      </c>
+      <c r="D53" t="s">
+        <v>434</v>
+      </c>
+      <c r="E53" t="s">
+        <v>437</v>
+      </c>
+      <c r="F53" t="s">
+        <v>438</v>
+      </c>
+      <c r="G53" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>421</v>
+      </c>
+      <c r="B54" t="s">
+        <v>425</v>
+      </c>
+      <c r="C54" t="s">
+        <v>422</v>
+      </c>
+      <c r="D54" t="s">
+        <v>423</v>
+      </c>
+      <c r="E54" t="s">
+        <v>424</v>
+      </c>
+      <c r="F54" t="s">
+        <v>426</v>
+      </c>
+      <c r="G54" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>427</v>
+      </c>
+      <c r="B55" t="s">
+        <v>430</v>
+      </c>
+      <c r="C55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D55" t="s">
+        <v>431</v>
+      </c>
+      <c r="E55" t="s">
+        <v>429</v>
+      </c>
+      <c r="F55" t="s">
+        <v>432</v>
+      </c>
+      <c r="G55" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>433</v>
+      </c>
+      <c r="B56" t="s">
+        <v>435</v>
+      </c>
+      <c r="C56" t="s">
+        <v>434</v>
+      </c>
+      <c r="D56" t="s">
+        <v>437</v>
+      </c>
+      <c r="E56" t="s">
+        <v>436</v>
+      </c>
+      <c r="F56" t="s">
+        <v>438</v>
+      </c>
+      <c r="G56" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>421</v>
+      </c>
+      <c r="B57" t="s">
+        <v>422</v>
+      </c>
+      <c r="C57" t="s">
+        <v>425</v>
+      </c>
+      <c r="D57" t="s">
+        <v>424</v>
+      </c>
+      <c r="E57" t="s">
+        <v>423</v>
+      </c>
+      <c r="F57" t="s">
+        <v>426</v>
+      </c>
+      <c r="G57" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>427</v>
+      </c>
+      <c r="B58" t="s">
+        <v>429</v>
+      </c>
+      <c r="C58" t="s">
+        <v>428</v>
+      </c>
+      <c r="D58" t="s">
+        <v>431</v>
+      </c>
+      <c r="E58" t="s">
+        <v>430</v>
+      </c>
+      <c r="F58" t="s">
+        <v>432</v>
+      </c>
+      <c r="G58" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>433</v>
+      </c>
+      <c r="B59" t="s">
+        <v>437</v>
+      </c>
+      <c r="C59" t="s">
+        <v>435</v>
+      </c>
+      <c r="D59" t="s">
+        <v>436</v>
+      </c>
+      <c r="E59" t="s">
+        <v>434</v>
+      </c>
+      <c r="F59" t="s">
+        <v>438</v>
+      </c>
+      <c r="G59" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>421</v>
+      </c>
+      <c r="B60" t="s">
+        <v>422</v>
+      </c>
+      <c r="C60" t="s">
+        <v>424</v>
+      </c>
+      <c r="D60" t="s">
+        <v>423</v>
+      </c>
+      <c r="E60" t="s">
+        <v>425</v>
+      </c>
+      <c r="F60" t="s">
+        <v>426</v>
+      </c>
+      <c r="G60" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>427</v>
+      </c>
+      <c r="B61" t="s">
+        <v>428</v>
+      </c>
+      <c r="C61" t="s">
+        <v>429</v>
+      </c>
+      <c r="D61" t="s">
+        <v>431</v>
+      </c>
+      <c r="E61" t="s">
+        <v>430</v>
+      </c>
+      <c r="F61" t="s">
+        <v>432</v>
+      </c>
+      <c r="G61" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>433</v>
+      </c>
+      <c r="B62" t="s">
+        <v>434</v>
+      </c>
+      <c r="C62" t="s">
+        <v>435</v>
+      </c>
+      <c r="D62" t="s">
+        <v>436</v>
+      </c>
+      <c r="E62" t="s">
+        <v>437</v>
+      </c>
+      <c r="F62" t="s">
+        <v>438</v>
+      </c>
+      <c r="G62" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>421</v>
+      </c>
+      <c r="B63" t="s">
+        <v>423</v>
+      </c>
+      <c r="C63" t="s">
+        <v>422</v>
+      </c>
+      <c r="D63" t="s">
+        <v>425</v>
+      </c>
+      <c r="E63" t="s">
+        <v>424</v>
+      </c>
+      <c r="F63" t="s">
+        <v>426</v>
+      </c>
+      <c r="G63" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>427</v>
+      </c>
+      <c r="B64" t="s">
+        <v>429</v>
+      </c>
+      <c r="C64" t="s">
+        <v>431</v>
+      </c>
+      <c r="D64" t="s">
+        <v>428</v>
+      </c>
+      <c r="E64" t="s">
+        <v>430</v>
+      </c>
+      <c r="F64" t="s">
+        <v>432</v>
+      </c>
+      <c r="G64" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>433</v>
+      </c>
+      <c r="B65" t="s">
+        <v>435</v>
+      </c>
+      <c r="C65" t="s">
+        <v>434</v>
+      </c>
+      <c r="D65" t="s">
+        <v>436</v>
+      </c>
+      <c r="E65" t="s">
+        <v>437</v>
+      </c>
+      <c r="F65" t="s">
+        <v>438</v>
+      </c>
+      <c r="G65" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>421</v>
+      </c>
+      <c r="B66" t="s">
+        <v>423</v>
+      </c>
+      <c r="C66" t="s">
+        <v>422</v>
+      </c>
+      <c r="D66" t="s">
+        <v>425</v>
+      </c>
+      <c r="E66" t="s">
+        <v>424</v>
+      </c>
+      <c r="F66" t="s">
+        <v>426</v>
+      </c>
+      <c r="G66" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>427</v>
+      </c>
+      <c r="B67" t="s">
+        <v>431</v>
+      </c>
+      <c r="C67" t="s">
+        <v>430</v>
+      </c>
+      <c r="D67" t="s">
+        <v>429</v>
+      </c>
+      <c r="E67" t="s">
+        <v>428</v>
+      </c>
+      <c r="F67" t="s">
+        <v>432</v>
+      </c>
+      <c r="G67" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>433</v>
+      </c>
+      <c r="B68" t="s">
+        <v>434</v>
+      </c>
+      <c r="C68" t="s">
+        <v>436</v>
+      </c>
+      <c r="D68" t="s">
+        <v>435</v>
+      </c>
+      <c r="E68" t="s">
+        <v>437</v>
+      </c>
+      <c r="F68" t="s">
+        <v>438</v>
+      </c>
+      <c r="G68" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>421</v>
+      </c>
+      <c r="B69" t="s">
+        <v>424</v>
+      </c>
+      <c r="C69" t="s">
+        <v>422</v>
+      </c>
+      <c r="D69" t="s">
+        <v>425</v>
+      </c>
+      <c r="E69" t="s">
+        <v>423</v>
+      </c>
+      <c r="F69" t="s">
+        <v>426</v>
+      </c>
+      <c r="G69" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>427</v>
+      </c>
+      <c r="B70" t="s">
+        <v>429</v>
+      </c>
+      <c r="C70" t="s">
+        <v>430</v>
+      </c>
+      <c r="D70" t="s">
+        <v>431</v>
+      </c>
+      <c r="E70" t="s">
+        <v>428</v>
+      </c>
+      <c r="F70" t="s">
+        <v>432</v>
+      </c>
+      <c r="G70" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>439</v>
+      </c>
+      <c r="B71" t="s">
+        <v>440</v>
+      </c>
+      <c r="C71" t="s">
+        <v>441</v>
+      </c>
+      <c r="D71" t="s">
+        <v>442</v>
+      </c>
+      <c r="E71" t="s">
+        <v>443</v>
+      </c>
+      <c r="F71" t="s">
+        <v>444</v>
+      </c>
+      <c r="G71" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>445</v>
+      </c>
+      <c r="B72" t="s">
+        <v>446</v>
+      </c>
+      <c r="C72" t="s">
+        <v>447</v>
+      </c>
+      <c r="D72" t="s">
+        <v>448</v>
+      </c>
+      <c r="E72" t="s">
+        <v>449</v>
+      </c>
+      <c r="F72" t="s">
+        <v>450</v>
+      </c>
+      <c r="G72" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>451</v>
+      </c>
+      <c r="B73" t="s">
+        <v>452</v>
+      </c>
+      <c r="C73" t="s">
+        <v>453</v>
+      </c>
+      <c r="D73" t="s">
+        <v>454</v>
+      </c>
+      <c r="E73" t="s">
+        <v>455</v>
+      </c>
+      <c r="F73" t="s">
+        <v>456</v>
+      </c>
+      <c r="G73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>439</v>
+      </c>
+      <c r="B74" t="s">
+        <v>440</v>
+      </c>
+      <c r="C74" t="s">
+        <v>442</v>
+      </c>
+      <c r="D74" t="s">
+        <v>443</v>
+      </c>
+      <c r="E74" t="s">
+        <v>441</v>
+      </c>
+      <c r="F74" t="s">
+        <v>444</v>
+      </c>
+      <c r="G74" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>445</v>
+      </c>
+      <c r="B75" t="s">
+        <v>446</v>
+      </c>
+      <c r="C75" t="s">
+        <v>449</v>
+      </c>
+      <c r="D75" t="s">
+        <v>447</v>
+      </c>
+      <c r="E75" t="s">
+        <v>448</v>
+      </c>
+      <c r="F75" t="s">
+        <v>450</v>
+      </c>
+      <c r="G75" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>451</v>
+      </c>
+      <c r="B76" t="s">
+        <v>453</v>
+      </c>
+      <c r="C76" t="s">
+        <v>454</v>
+      </c>
+      <c r="D76" t="s">
+        <v>452</v>
+      </c>
+      <c r="E76" t="s">
+        <v>455</v>
+      </c>
+      <c r="F76" t="s">
+        <v>456</v>
+      </c>
+      <c r="G76" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>439</v>
+      </c>
+      <c r="B77" t="s">
+        <v>440</v>
+      </c>
+      <c r="C77" t="s">
+        <v>441</v>
+      </c>
+      <c r="D77" t="s">
+        <v>442</v>
+      </c>
+      <c r="E77" t="s">
+        <v>443</v>
+      </c>
+      <c r="F77" t="s">
+        <v>444</v>
+      </c>
+      <c r="G77" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>445</v>
+      </c>
+      <c r="B78" t="s">
+        <v>448</v>
+      </c>
+      <c r="C78" t="s">
+        <v>446</v>
+      </c>
+      <c r="D78" t="s">
+        <v>447</v>
+      </c>
+      <c r="E78" t="s">
+        <v>449</v>
+      </c>
+      <c r="F78" t="s">
+        <v>450</v>
+      </c>
+      <c r="G78" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>451</v>
+      </c>
+      <c r="B79" t="s">
+        <v>452</v>
+      </c>
+      <c r="C79" t="s">
+        <v>455</v>
+      </c>
+      <c r="D79" t="s">
+        <v>453</v>
+      </c>
+      <c r="E79" t="s">
+        <v>454</v>
+      </c>
+      <c r="F79" t="s">
+        <v>456</v>
+      </c>
+      <c r="G79" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>439</v>
+      </c>
+      <c r="B80" t="s">
+        <v>443</v>
+      </c>
+      <c r="C80" t="s">
+        <v>440</v>
+      </c>
+      <c r="D80" t="s">
+        <v>442</v>
+      </c>
+      <c r="E80" t="s">
+        <v>441</v>
+      </c>
+      <c r="F80" t="s">
+        <v>444</v>
+      </c>
+      <c r="G80" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>445</v>
+      </c>
+      <c r="B81" t="s">
+        <v>446</v>
+      </c>
+      <c r="C81" t="s">
+        <v>449</v>
+      </c>
+      <c r="D81" t="s">
+        <v>447</v>
+      </c>
+      <c r="E81" t="s">
+        <v>448</v>
+      </c>
+      <c r="F81" t="s">
+        <v>450</v>
+      </c>
+      <c r="G81" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>451</v>
+      </c>
+      <c r="B82" t="s">
+        <v>453</v>
+      </c>
+      <c r="C82" t="s">
+        <v>454</v>
+      </c>
+      <c r="D82" t="s">
+        <v>455</v>
+      </c>
+      <c r="E82" t="s">
+        <v>452</v>
+      </c>
+      <c r="F82" t="s">
+        <v>456</v>
+      </c>
+      <c r="G82" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>439</v>
+      </c>
+      <c r="B83" t="s">
+        <v>441</v>
+      </c>
+      <c r="C83" t="s">
+        <v>440</v>
+      </c>
+      <c r="D83" t="s">
+        <v>443</v>
+      </c>
+      <c r="E83" t="s">
+        <v>442</v>
+      </c>
+      <c r="F83" t="s">
+        <v>444</v>
+      </c>
+      <c r="G83" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>445</v>
+      </c>
+      <c r="B84" t="s">
+        <v>446</v>
+      </c>
+      <c r="C84" t="s">
+        <v>449</v>
+      </c>
+      <c r="D84" t="s">
+        <v>447</v>
+      </c>
+      <c r="E84" t="s">
+        <v>448</v>
+      </c>
+      <c r="F84" t="s">
+        <v>450</v>
+      </c>
+      <c r="G84" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>451</v>
+      </c>
+      <c r="B85" t="s">
+        <v>454</v>
+      </c>
+      <c r="C85" t="s">
+        <v>453</v>
+      </c>
+      <c r="D85" t="s">
+        <v>455</v>
+      </c>
+      <c r="E85" t="s">
+        <v>452</v>
+      </c>
+      <c r="F85" t="s">
+        <v>456</v>
+      </c>
+      <c r="G85" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>439</v>
+      </c>
+      <c r="B86" t="s">
+        <v>440</v>
+      </c>
+      <c r="C86" t="s">
+        <v>441</v>
+      </c>
+      <c r="D86" t="s">
+        <v>443</v>
+      </c>
+      <c r="E86" t="s">
+        <v>442</v>
+      </c>
+      <c r="F86" t="s">
+        <v>444</v>
+      </c>
+      <c r="G86" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>445</v>
+      </c>
+      <c r="B87" t="s">
+        <v>446</v>
+      </c>
+      <c r="C87" t="s">
+        <v>448</v>
+      </c>
+      <c r="D87" t="s">
+        <v>449</v>
+      </c>
+      <c r="E87" t="s">
+        <v>447</v>
+      </c>
+      <c r="F87" t="s">
+        <v>450</v>
+      </c>
+      <c r="G87" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>451</v>
+      </c>
+      <c r="B88" t="s">
+        <v>452</v>
+      </c>
+      <c r="C88" t="s">
+        <v>453</v>
+      </c>
+      <c r="D88" t="s">
+        <v>455</v>
+      </c>
+      <c r="E88" t="s">
+        <v>454</v>
+      </c>
+      <c r="F88" t="s">
+        <v>456</v>
+      </c>
+      <c r="G88" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>439</v>
+      </c>
+      <c r="B89" t="s">
+        <v>441</v>
+      </c>
+      <c r="C89" t="s">
+        <v>443</v>
+      </c>
+      <c r="D89" t="s">
+        <v>440</v>
+      </c>
+      <c r="E89" t="s">
+        <v>442</v>
+      </c>
+      <c r="F89" t="s">
+        <v>444</v>
+      </c>
+      <c r="G89" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>445</v>
+      </c>
+      <c r="B90" t="s">
+        <v>447</v>
+      </c>
+      <c r="C90" t="s">
+        <v>446</v>
+      </c>
+      <c r="D90" t="s">
+        <v>448</v>
+      </c>
+      <c r="E90" t="s">
+        <v>449</v>
+      </c>
+      <c r="F90" t="s">
+        <v>450</v>
+      </c>
+      <c r="G90" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>451</v>
+      </c>
+      <c r="B91" t="s">
+        <v>452</v>
+      </c>
+      <c r="C91" t="s">
+        <v>455</v>
+      </c>
+      <c r="D91" t="s">
+        <v>454</v>
+      </c>
+      <c r="E91" t="s">
+        <v>453</v>
+      </c>
+      <c r="F91" t="s">
+        <v>456</v>
+      </c>
+      <c r="G91" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>439</v>
+      </c>
+      <c r="B92" t="s">
+        <v>440</v>
+      </c>
+      <c r="C92" t="s">
+        <v>442</v>
+      </c>
+      <c r="D92" t="s">
+        <v>441</v>
+      </c>
+      <c r="E92" t="s">
+        <v>443</v>
+      </c>
+      <c r="F92" t="s">
+        <v>444</v>
+      </c>
+      <c r="G92" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>445</v>
+      </c>
+      <c r="B93" t="s">
+        <v>448</v>
+      </c>
+      <c r="C93" t="s">
+        <v>447</v>
+      </c>
+      <c r="D93" t="s">
+        <v>449</v>
+      </c>
+      <c r="E93" t="s">
+        <v>446</v>
+      </c>
+      <c r="F93" t="s">
+        <v>450</v>
+      </c>
+      <c r="G93" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>451</v>
+      </c>
+      <c r="B94" t="s">
+        <v>452</v>
+      </c>
+      <c r="C94" t="s">
+        <v>454</v>
+      </c>
+      <c r="D94" t="s">
+        <v>455</v>
+      </c>
+      <c r="E94" t="s">
+        <v>453</v>
+      </c>
+      <c r="F94" t="s">
+        <v>456</v>
+      </c>
+      <c r="G94" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>439</v>
+      </c>
+      <c r="B95" t="s">
+        <v>440</v>
+      </c>
+      <c r="C95" t="s">
+        <v>442</v>
+      </c>
+      <c r="D95" t="s">
+        <v>441</v>
+      </c>
+      <c r="E95" t="s">
+        <v>443</v>
+      </c>
+      <c r="F95" t="s">
+        <v>444</v>
+      </c>
+      <c r="G95" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>445</v>
+      </c>
+      <c r="B96" t="s">
+        <v>446</v>
+      </c>
+      <c r="C96" t="s">
+        <v>449</v>
+      </c>
+      <c r="D96" t="s">
+        <v>448</v>
+      </c>
+      <c r="E96" t="s">
+        <v>447</v>
+      </c>
+      <c r="F96" t="s">
+        <v>450</v>
+      </c>
+      <c r="G96" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>451</v>
+      </c>
+      <c r="B97" t="s">
+        <v>452</v>
+      </c>
+      <c r="C97" t="s">
+        <v>454</v>
+      </c>
+      <c r="D97" t="s">
+        <v>453</v>
+      </c>
+      <c r="E97" t="s">
+        <v>455</v>
+      </c>
+      <c r="F97" t="s">
+        <v>456</v>
+      </c>
+      <c r="G97" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>439</v>
+      </c>
+      <c r="B98" t="s">
+        <v>441</v>
+      </c>
+      <c r="C98" t="s">
+        <v>440</v>
+      </c>
+      <c r="D98" t="s">
+        <v>442</v>
+      </c>
+      <c r="E98" t="s">
+        <v>443</v>
+      </c>
+      <c r="F98" t="s">
+        <v>444</v>
+      </c>
+      <c r="G98" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>445</v>
+      </c>
+      <c r="B99" t="s">
+        <v>448</v>
+      </c>
+      <c r="C99" t="s">
+        <v>449</v>
+      </c>
+      <c r="D99" t="s">
+        <v>446</v>
+      </c>
+      <c r="E99" t="s">
+        <v>447</v>
+      </c>
+      <c r="F99" t="s">
+        <v>450</v>
+      </c>
+      <c r="G99" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>451</v>
+      </c>
+      <c r="B100" t="s">
+        <v>453</v>
+      </c>
+      <c r="C100" t="s">
+        <v>454</v>
+      </c>
+      <c r="D100" t="s">
+        <v>452</v>
+      </c>
+      <c r="E100" t="s">
+        <v>455</v>
+      </c>
+      <c r="F100" t="s">
+        <v>456</v>
+      </c>
+      <c r="G100" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>439</v>
+      </c>
+      <c r="B101" t="s">
+        <v>442</v>
+      </c>
+      <c r="C101" t="s">
+        <v>441</v>
+      </c>
+      <c r="D101" t="s">
+        <v>443</v>
+      </c>
+      <c r="E101" t="s">
+        <v>440</v>
+      </c>
+      <c r="F101" t="s">
+        <v>444</v>
+      </c>
+      <c r="G101" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>445</v>
+      </c>
+      <c r="B102" t="s">
+        <v>449</v>
+      </c>
+      <c r="C102" t="s">
+        <v>446</v>
+      </c>
+      <c r="D102" t="s">
+        <v>448</v>
+      </c>
+      <c r="E102" t="s">
+        <v>447</v>
+      </c>
+      <c r="F102" t="s">
+        <v>450</v>
+      </c>
+      <c r="G102" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>451</v>
+      </c>
+      <c r="B103" t="s">
+        <v>453</v>
+      </c>
+      <c r="C103" t="s">
+        <v>454</v>
+      </c>
+      <c r="D103" t="s">
+        <v>452</v>
+      </c>
+      <c r="E103" t="s">
+        <v>455</v>
+      </c>
+      <c r="F103" t="s">
+        <v>456</v>
+      </c>
+      <c r="G103" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>439</v>
+      </c>
+      <c r="B104" t="s">
+        <v>441</v>
+      </c>
+      <c r="C104" t="s">
+        <v>442</v>
+      </c>
+      <c r="D104" t="s">
+        <v>443</v>
+      </c>
+      <c r="E104" t="s">
+        <v>440</v>
+      </c>
+      <c r="F104" t="s">
+        <v>444</v>
+      </c>
+      <c r="G104" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>445</v>
+      </c>
+      <c r="B105" t="s">
+        <v>447</v>
+      </c>
+      <c r="C105" t="s">
+        <v>449</v>
+      </c>
+      <c r="D105" t="s">
+        <v>448</v>
+      </c>
+      <c r="E105" t="s">
+        <v>446</v>
+      </c>
+      <c r="F105" t="s">
+        <v>450</v>
+      </c>
+      <c r="G105" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Database/Questions.xlsx
+++ b/Database/Questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -5929,7 +5929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -8359,7 +8359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
